--- a/src/lib/gen-generic/port-battle.xlsx
+++ b/src/lib/gen-generic/port-battle.xlsx
@@ -221,19 +221,19 @@
     <t>Beaufort</t>
   </si>
   <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Bensalem</t>
+  </si>
+  <si>
     <t>L’Hermione (i)</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Bensalem</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
   </si>
   <si>
     <t>Bernal</t>
@@ -2200,7 +2200,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="13">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="D9" s="13">
         <f>COUNTA(F9:AD9)</f>
@@ -2296,7 +2296,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="13">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="D11" s="13">
         <f>COUNTA(F11:AD11)</f>
@@ -3160,7 +3160,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="10">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D29" s="10">
         <f>COUNTA(F29:AD29)</f>
@@ -3256,7 +3256,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="10">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D31" s="10">
         <f>COUNTA(F31:AD31)</f>

--- a/src/lib/gen-generic/port-battle.xlsx
+++ b/src/lib/gen-generic/port-battle.xlsx
@@ -1373,7 +1373,7 @@
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <color rgb="00373b2b"/>
+      <color rgb="0029281a"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
@@ -1381,7 +1381,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="0035c399"/>
+      <color rgb="003bad8b"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
@@ -1389,7 +1389,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="00c9ccc1"/>
+      <color rgb="00e0e0d9"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
@@ -1397,7 +1397,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="00373b2b"/>
+      <color rgb="0029281a"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
@@ -1413,32 +1413,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00c9ccc1"/>
+        <fgColor rgb="00e0e0d9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0082886f"/>
+        <fgColor rgb="00858468"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00b2b5a6"/>
+        <fgColor rgb="00c2c1b3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e1e3dd"/>
+        <fgColor rgb="00f0f0ec"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00eeebe7"/>
+        <fgColor rgb="00f3f1ef"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00fdfdfd"/>
+        <fgColor rgb="00faf9f9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1454,10 +1454,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="00b2b5a6"/>
+        <color rgb="00c2c1b3"/>
       </top>
       <bottom style="thin">
-        <color rgb="00b2b5a6"/>
+        <color rgb="00c2c1b3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1515,7 +1515,7 @@
     <dxf>
       <font>
         <b/>
-        <color rgb="00cd4488"/>
+        <color rgb="00b5467d"/>
         <family val="2"/>
         <scheme val="minor"/>
         <sz val="14"/>
@@ -1525,7 +1525,7 @@
     <dxf>
       <font>
         <b/>
-        <color rgb="00cd4488"/>
+        <color rgb="00b5467d"/>
         <family val="2"/>
         <scheme val="minor"/>
         <sz val="14"/>

--- a/src/lib/gen-generic/port-battle.xlsx
+++ b/src/lib/gen-generic/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="451">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -101,234 +101,237 @@
     <t>Apalachicola</t>
   </si>
   <si>
+    <t>Le Bucentaure</t>
+  </si>
+  <si>
+    <t>Aransas</t>
+  </si>
+  <si>
     <t>Christian</t>
   </si>
   <si>
-    <t>Aransas</t>
-  </si>
-  <si>
-    <t>Le Bucentaure</t>
-  </si>
-  <si>
     <t>Arecibo</t>
   </si>
   <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>Atchafalaya</t>
+  </si>
+  <si>
     <t>St. Pavel</t>
   </si>
   <si>
-    <t>Atchafalaya</t>
+    <t>Atwoods</t>
   </si>
   <si>
     <t>Admiraal de Ruyter</t>
   </si>
   <si>
-    <t>Atwoods</t>
+    <t>Aves</t>
   </si>
   <si>
     <t>Implacable</t>
   </si>
   <si>
-    <t>Aves</t>
+    <t>Ayamonte</t>
   </si>
   <si>
     <t>Redoutable (i)</t>
   </si>
   <si>
-    <t>Ayamonte</t>
+    <t>Ays</t>
   </si>
   <si>
     <t>Bellona</t>
   </si>
   <si>
-    <t>Ays</t>
+    <t>Azua</t>
+  </si>
+  <si>
+    <t>Wasa</t>
+  </si>
+  <si>
+    <t>Bahía Escocesa</t>
   </si>
   <si>
     <t>3rd Rate</t>
   </si>
   <si>
-    <t>Azua</t>
+    <t>Bahía Honda</t>
   </si>
   <si>
     <t>Constitution</t>
   </si>
   <si>
-    <t>Bahía Escocesa</t>
+    <t>Baja</t>
   </si>
   <si>
     <t>USS United States</t>
   </si>
   <si>
-    <t>Bahía Honda</t>
-  </si>
-  <si>
-    <t>Wasa</t>
-  </si>
-  <si>
-    <t>Baja</t>
+    <t>Baní</t>
   </si>
   <si>
     <t>Agamemnon</t>
   </si>
   <si>
-    <t>Baní</t>
+    <t>Baracoa</t>
   </si>
   <si>
     <t>Rättvisan (i)</t>
   </si>
   <si>
-    <t>Baracoa</t>
+    <t>Barahona</t>
+  </si>
+  <si>
+    <t>Ingermanland</t>
+  </si>
+  <si>
+    <t>Barataria</t>
+  </si>
+  <si>
+    <t>Wapen von Hamburg</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Basse-Terre</t>
   </si>
   <si>
     <t>Leopard (i)</t>
   </si>
   <si>
-    <t>Barahona</t>
-  </si>
-  <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Barataria</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
-  </si>
-  <si>
-    <t>Barranquilla</t>
-  </si>
-  <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
-    <t>Basse-Terre</t>
+    <t>Basseterre Town</t>
   </si>
   <si>
     <t>Endymion</t>
   </si>
   <si>
-    <t>Basseterre Town</t>
+    <t>Batabanó</t>
   </si>
   <si>
     <t>Trincomalee</t>
   </si>
   <si>
-    <t>Batabanó</t>
+    <t>Beaufort</t>
   </si>
   <si>
     <t>Diana</t>
   </si>
   <si>
-    <t>Beaufort</t>
+    <t>Belize</t>
   </si>
   <si>
     <t>Essex</t>
   </si>
   <si>
-    <t>Belize</t>
+    <t>Bensalem</t>
   </si>
   <si>
     <t>Santa Cecilia</t>
   </si>
   <si>
-    <t>Bensalem</t>
+    <t>Bernal</t>
   </si>
   <si>
     <t>L’Hermione (i)</t>
   </si>
   <si>
-    <t>Bernal</t>
+    <t>Biloxi</t>
   </si>
   <si>
     <t>La Belle-Poule</t>
   </si>
   <si>
-    <t>Biloxi</t>
+    <t>Black River</t>
   </si>
   <si>
     <t>Pirate Frigate</t>
   </si>
   <si>
-    <t>Black River</t>
+    <t>Bluefields</t>
   </si>
   <si>
     <t>Frigate</t>
   </si>
   <si>
-    <t>Bluefields</t>
+    <t>Bonacca</t>
   </si>
   <si>
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
-    <t>Bonacca</t>
+    <t>Brangman’s Bluff</t>
   </si>
   <si>
     <t>Indiaman</t>
   </si>
   <si>
-    <t>Brangman’s Bluff</t>
+    <t>Bridgetown</t>
   </si>
   <si>
     <t>La Renommée</t>
   </si>
   <si>
-    <t>Bridgetown</t>
+    <t>Brunswick</t>
   </si>
   <si>
     <t>Le Gros Ventre</t>
   </si>
   <si>
-    <t>Brunswick</t>
+    <t>Buena Vista</t>
   </si>
   <si>
     <t>Surprise</t>
   </si>
   <si>
-    <t>Buena Vista</t>
+    <t>Cabo Cañaveral</t>
   </si>
   <si>
     <t>Hercules (i)</t>
   </si>
   <si>
-    <t>Cabo Cañaveral</t>
+    <t>Cabo de la Vela</t>
   </si>
   <si>
     <t>Cerberus</t>
   </si>
   <si>
-    <t>Cabo de la Vela</t>
+    <t>Cabo Rojo</t>
   </si>
   <si>
     <t>Pandora (i)</t>
   </si>
   <si>
-    <t>Cabo Rojo</t>
+    <t>Calcasieu</t>
   </si>
   <si>
     <t>Le Requin (i)</t>
   </si>
   <si>
-    <t>Calcasieu</t>
+    <t>Calobelo</t>
   </si>
   <si>
     <t>Rattlesnake Heavy</t>
   </si>
   <si>
-    <t>Calobelo</t>
+    <t>Camp du Roy</t>
   </si>
   <si>
     <t>Niagara</t>
   </si>
   <si>
-    <t>Camp du Roy</t>
+    <t>Campeche</t>
   </si>
   <si>
     <t>Mortar Brig</t>
   </si>
   <si>
-    <t>Campeche</t>
-  </si>
-  <si>
     <t>Canalete</t>
   </si>
   <si>
@@ -956,9 +959,6 @@
     <t>Sandy Hill</t>
   </si>
   <si>
-    <t>Santa Ana</t>
-  </si>
-  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
@@ -1215,6 +1215,9 @@
   </si>
   <si>
     <t>Daguilla</t>
+  </si>
+  <si>
+    <t>Travel Balloon</t>
   </si>
   <si>
     <t>Deadman’s Cay</t>
@@ -1949,10 +1952,10 @@
     </row>
     <row r="4" spans="4:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8">
-        <f>SUM(D5:D46)</f>
+        <f>SUM(D5:D47)</f>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E46)</f>
+        <f>SUM(E5:E47)</f>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
@@ -2200,7 +2203,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="13">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="D9" s="13">
         <f>COUNTA(F9:AD9)</f>
@@ -2296,7 +2299,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="13">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="D11" s="13">
         <f>COUNTA(F11:AD11)</f>
@@ -2337,46 +2340,46 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>3</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="10">
-        <v>550</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C12" s="13">
+        <v>500</v>
+      </c>
+      <c r="D12" s="13">
         <f>COUNTA(F12:AD12)</f>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="13">
         <f>C12*D12</f>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
       <c r="AE12" t="s">
         <v>36</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="10">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="D15" s="10">
         <f>COUNTA(F15:AD15)</f>
@@ -2536,7 +2539,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="10">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D16" s="10">
         <f>COUNTA(F16:AD16)</f>
@@ -2584,7 +2587,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="10">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="D17" s="10">
         <f>COUNTA(F17:AD17)</f>
@@ -2632,7 +2635,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="10">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="D18" s="10">
         <f>COUNTA(F18:AD18)</f>
@@ -2680,7 +2683,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="10">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="D19" s="10">
         <f>COUNTA(F19:AD19)</f>
@@ -2721,46 +2724,46 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>4</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="10">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="13">
-        <v>340</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="C20" s="10">
+        <v>360</v>
+      </c>
+      <c r="D20" s="10">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
       <c r="AE20" t="s">
         <v>52</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D22" s="13">
         <f>COUNTA(F22:AD22)</f>
@@ -2872,7 +2875,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="13">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D23" s="13">
         <f>COUNTA(F23:AD23)</f>
@@ -2920,7 +2923,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="13">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D24" s="13">
         <f>COUNTA(F24:AD24)</f>
@@ -3009,46 +3012,46 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>5</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="13">
+        <v>4</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="10">
-        <v>270</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="C26" s="13">
+        <v>290</v>
+      </c>
+      <c r="D26" s="13">
         <f>COUNTA(F26:AD26)</f>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="13">
         <f>C26*D26</f>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
       <c r="AE26" t="s">
         <v>64</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="10">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D27" s="10">
         <f>COUNTA(F27:AD27)</f>
@@ -3112,7 +3115,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="10">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D28" s="10">
         <f>COUNTA(F28:AD28)</f>
@@ -3160,7 +3163,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="10">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D29" s="10">
         <f>COUNTA(F29:AD29)</f>
@@ -3256,7 +3259,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="10">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D31" s="10">
         <f>COUNTA(F31:AD31)</f>
@@ -3400,7 +3403,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="10">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D34" s="10">
         <f>COUNTA(F34:AD34)</f>
@@ -3448,7 +3451,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="10">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D35" s="10">
         <f>COUNTA(F35:AD35)</f>
@@ -3496,7 +3499,7 @@
         <v>83</v>
       </c>
       <c r="C36" s="10">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D36" s="10">
         <f>COUNTA(F36:AD36)</f>
@@ -3544,7 +3547,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="10">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D37" s="10">
         <f>COUNTA(F37:AD37)</f>
@@ -3688,7 +3691,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="10">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D40" s="10">
         <f>COUNTA(F40:AD40)</f>
@@ -3736,7 +3739,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D41" s="10">
         <f>COUNTA(F41:AD41)</f>
@@ -3825,46 +3828,46 @@
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>6</v>
-      </c>
-      <c r="B43" s="14" t="s">
+      <c r="A43" s="10">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="10">
         <v>100</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="10">
         <f>COUNTA(F43:AD43)</f>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="10">
         <f>C43*D43</f>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
       <c r="AE43" t="s">
         <v>98</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>101</v>
       </c>
       <c r="C45" s="13">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D45" s="13">
         <f>COUNTA(F45:AD45)</f>
@@ -3976,7 +3979,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="13">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D46" s="13">
         <f>COUNTA(F46:AD46)</f>
@@ -4016,9 +4019,49 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>6</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="13">
+        <v>80</v>
+      </c>
+      <c r="D47" s="13">
+        <f>COUNTA(F47:AD47)</f>
+      </c>
+      <c r="E47" s="13">
+        <f>C47*D47</f>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
       <c r="AE47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF47">
         <v>5700</v>
@@ -4026,7 +4069,7 @@
     </row>
     <row r="48" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF48">
         <v>5700</v>
@@ -4034,7 +4077,7 @@
     </row>
     <row r="49" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF49">
         <v>5700</v>
@@ -4042,7 +4085,7 @@
     </row>
     <row r="50" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF50">
         <v>5700</v>
@@ -4050,7 +4093,7 @@
     </row>
     <row r="51" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF51">
         <v>20000</v>
@@ -4058,7 +4101,7 @@
     </row>
     <row r="52" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF52">
         <v>20000</v>
@@ -4066,7 +4109,7 @@
     </row>
     <row r="53" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF53">
         <v>10600</v>
@@ -4074,7 +4117,7 @@
     </row>
     <row r="54" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF54">
         <v>10600</v>
@@ -4082,7 +4125,7 @@
     </row>
     <row r="55" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF55">
         <v>5700</v>
@@ -4090,7 +4133,7 @@
     </row>
     <row r="56" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF56">
         <v>20000</v>
@@ -4098,7 +4141,7 @@
     </row>
     <row r="57" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF57">
         <v>5700</v>
@@ -4106,7 +4149,7 @@
     </row>
     <row r="58" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF58">
         <v>5700</v>
@@ -4114,7 +4157,7 @@
     </row>
     <row r="59" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF59">
         <v>10600</v>
@@ -4122,7 +4165,7 @@
     </row>
     <row r="60" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF60">
         <v>5700</v>
@@ -4130,7 +4173,7 @@
     </row>
     <row r="61" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF61">
         <v>5700</v>
@@ -4138,7 +4181,7 @@
     </row>
     <row r="62" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF62">
         <v>5700</v>
@@ -4146,7 +4189,7 @@
     </row>
     <row r="63" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF63">
         <v>5700</v>
@@ -4154,7 +4197,7 @@
     </row>
     <row r="64" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF64">
         <v>5700</v>
@@ -4162,7 +4205,7 @@
     </row>
     <row r="65" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF65">
         <v>20000</v>
@@ -4170,7 +4213,7 @@
     </row>
     <row r="66" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF66">
         <v>5700</v>
@@ -4178,7 +4221,7 @@
     </row>
     <row r="67" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF67">
         <v>10600</v>
@@ -4186,7 +4229,7 @@
     </row>
     <row r="68" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF68">
         <v>20000</v>
@@ -4194,7 +4237,7 @@
     </row>
     <row r="69" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF69">
         <v>20000</v>
@@ -4202,7 +4245,7 @@
     </row>
     <row r="70" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF70">
         <v>10600</v>
@@ -4210,7 +4253,7 @@
     </row>
     <row r="71" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF71">
         <v>5700</v>
@@ -4218,7 +4261,7 @@
     </row>
     <row r="72" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF72">
         <v>5700</v>
@@ -4226,7 +4269,7 @@
     </row>
     <row r="73" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF73">
         <v>5700</v>
@@ -4234,7 +4277,7 @@
     </row>
     <row r="74" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF74">
         <v>5700</v>
@@ -4242,7 +4285,7 @@
     </row>
     <row r="75" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF75">
         <v>5700</v>
@@ -4250,7 +4293,7 @@
     </row>
     <row r="76" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF76">
         <v>5700</v>
@@ -4258,7 +4301,7 @@
     </row>
     <row r="77" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF77">
         <v>5700</v>
@@ -4266,7 +4309,7 @@
     </row>
     <row r="78" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF78">
         <v>5700</v>
@@ -4274,7 +4317,7 @@
     </row>
     <row r="79" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF79">
         <v>20000</v>
@@ -4282,7 +4325,7 @@
     </row>
     <row r="80" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF80">
         <v>5700</v>
@@ -4290,7 +4333,7 @@
     </row>
     <row r="81" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF81">
         <v>5700</v>
@@ -4298,7 +4341,7 @@
     </row>
     <row r="82" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF82">
         <v>20000</v>
@@ -4306,7 +4349,7 @@
     </row>
     <row r="83" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF83">
         <v>5700</v>
@@ -4314,7 +4357,7 @@
     </row>
     <row r="84" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE84" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF84">
         <v>10600</v>
@@ -4322,7 +4365,7 @@
     </row>
     <row r="85" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE85" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF85">
         <v>5700</v>
@@ -4330,7 +4373,7 @@
     </row>
     <row r="86" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE86" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF86">
         <v>5700</v>
@@ -4338,7 +4381,7 @@
     </row>
     <row r="87" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF87">
         <v>5700</v>
@@ -4346,7 +4389,7 @@
     </row>
     <row r="88" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE88" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF88">
         <v>5700</v>
@@ -4354,7 +4397,7 @@
     </row>
     <row r="89" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE89" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF89">
         <v>5700</v>
@@ -4362,7 +4405,7 @@
     </row>
     <row r="90" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF90">
         <v>5700</v>
@@ -4370,7 +4413,7 @@
     </row>
     <row r="91" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE91" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF91">
         <v>5700</v>
@@ -4378,7 +4421,7 @@
     </row>
     <row r="92" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE92" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF92">
         <v>10600</v>
@@ -4386,7 +4429,7 @@
     </row>
     <row r="93" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE93" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF93">
         <v>5700</v>
@@ -4394,7 +4437,7 @@
     </row>
     <row r="94" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE94" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF94">
         <v>5700</v>
@@ -4402,7 +4445,7 @@
     </row>
     <row r="95" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE95" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF95">
         <v>5700</v>
@@ -4410,7 +4453,7 @@
     </row>
     <row r="96" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE96" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF96">
         <v>5700</v>
@@ -4418,7 +4461,7 @@
     </row>
     <row r="97" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE97" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF97">
         <v>5700</v>
@@ -4426,7 +4469,7 @@
     </row>
     <row r="98" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE98" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF98">
         <v>10600</v>
@@ -4434,7 +4477,7 @@
     </row>
     <row r="99" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE99" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF99">
         <v>20000</v>
@@ -4442,7 +4485,7 @@
     </row>
     <row r="100" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE100" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF100">
         <v>10600</v>
@@ -4450,7 +4493,7 @@
     </row>
     <row r="101" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE101" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF101">
         <v>5700</v>
@@ -4458,7 +4501,7 @@
     </row>
     <row r="102" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE102" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF102">
         <v>5700</v>
@@ -4466,7 +4509,7 @@
     </row>
     <row r="103" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE103" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF103">
         <v>5700</v>
@@ -4474,7 +4517,7 @@
     </row>
     <row r="104" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE104" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF104">
         <v>20000</v>
@@ -4482,7 +4525,7 @@
     </row>
     <row r="105" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE105" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF105">
         <v>5700</v>
@@ -4490,7 +4533,7 @@
     </row>
     <row r="106" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE106" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF106">
         <v>5700</v>
@@ -4498,7 +4541,7 @@
     </row>
     <row r="107" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE107" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF107">
         <v>10600</v>
@@ -4506,7 +4549,7 @@
     </row>
     <row r="108" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE108" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF108">
         <v>10600</v>
@@ -4514,7 +4557,7 @@
     </row>
     <row r="109" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE109" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF109">
         <v>5700</v>
@@ -4522,7 +4565,7 @@
     </row>
     <row r="110" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE110" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF110">
         <v>5700</v>
@@ -4530,7 +4573,7 @@
     </row>
     <row r="111" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE111" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF111">
         <v>5700</v>
@@ -4538,7 +4581,7 @@
     </row>
     <row r="112" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE112" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF112">
         <v>5700</v>
@@ -4546,7 +4589,7 @@
     </row>
     <row r="113" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE113" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF113">
         <v>10600</v>
@@ -4554,7 +4597,7 @@
     </row>
     <row r="114" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE114" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF114">
         <v>5700</v>
@@ -4562,7 +4605,7 @@
     </row>
     <row r="115" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE115" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF115">
         <v>5700</v>
@@ -4570,7 +4613,7 @@
     </row>
     <row r="116" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE116" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF116">
         <v>5700</v>
@@ -4578,7 +4621,7 @@
     </row>
     <row r="117" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE117" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF117">
         <v>10600</v>
@@ -4586,7 +4629,7 @@
     </row>
     <row r="118" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE118" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF118">
         <v>20000</v>
@@ -4594,7 +4637,7 @@
     </row>
     <row r="119" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE119" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF119">
         <v>5700</v>
@@ -4602,7 +4645,7 @@
     </row>
     <row r="120" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE120" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF120">
         <v>10600</v>
@@ -4610,7 +4653,7 @@
     </row>
     <row r="121" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE121" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF121">
         <v>5700</v>
@@ -4618,7 +4661,7 @@
     </row>
     <row r="122" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE122" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF122">
         <v>10600</v>
@@ -4626,7 +4669,7 @@
     </row>
     <row r="123" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE123" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF123">
         <v>10600</v>
@@ -4634,7 +4677,7 @@
     </row>
     <row r="124" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE124" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF124">
         <v>5700</v>
@@ -4642,7 +4685,7 @@
     </row>
     <row r="125" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE125" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF125">
         <v>10600</v>
@@ -4650,7 +4693,7 @@
     </row>
     <row r="126" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE126" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF126">
         <v>5700</v>
@@ -4658,7 +4701,7 @@
     </row>
     <row r="127" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE127" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF127">
         <v>5700</v>
@@ -4666,7 +4709,7 @@
     </row>
     <row r="128" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE128" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF128">
         <v>5700</v>
@@ -4674,7 +4717,7 @@
     </row>
     <row r="129" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE129" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF129">
         <v>20000</v>
@@ -4682,7 +4725,7 @@
     </row>
     <row r="130" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE130" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF130">
         <v>10600</v>
@@ -4690,7 +4733,7 @@
     </row>
     <row r="131" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE131" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF131">
         <v>5700</v>
@@ -4698,7 +4741,7 @@
     </row>
     <row r="132" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE132" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF132">
         <v>5700</v>
@@ -4706,7 +4749,7 @@
     </row>
     <row r="133" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE133" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF133">
         <v>20000</v>
@@ -4714,7 +4757,7 @@
     </row>
     <row r="134" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE134" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF134">
         <v>5700</v>
@@ -4722,7 +4765,7 @@
     </row>
     <row r="135" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE135" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF135">
         <v>5700</v>
@@ -4730,7 +4773,7 @@
     </row>
     <row r="136" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE136" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF136">
         <v>5700</v>
@@ -4738,7 +4781,7 @@
     </row>
     <row r="137" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE137" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF137">
         <v>5700</v>
@@ -4746,7 +4789,7 @@
     </row>
     <row r="138" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE138" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF138">
         <v>5700</v>
@@ -4754,7 +4797,7 @@
     </row>
     <row r="139" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE139" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF139">
         <v>5700</v>
@@ -4762,7 +4805,7 @@
     </row>
     <row r="140" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE140" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF140">
         <v>10600</v>
@@ -4770,7 +4813,7 @@
     </row>
     <row r="141" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE141" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF141">
         <v>5700</v>
@@ -4778,7 +4821,7 @@
     </row>
     <row r="142" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE142" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF142">
         <v>5700</v>
@@ -4786,7 +4829,7 @@
     </row>
     <row r="143" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE143" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF143">
         <v>5700</v>
@@ -4794,7 +4837,7 @@
     </row>
     <row r="144" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE144" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF144">
         <v>5700</v>
@@ -4802,7 +4845,7 @@
     </row>
     <row r="145" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE145" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF145">
         <v>10600</v>
@@ -4810,7 +4853,7 @@
     </row>
     <row r="146" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE146" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF146">
         <v>20000</v>
@@ -4818,7 +4861,7 @@
     </row>
     <row r="147" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE147" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF147">
         <v>10600</v>
@@ -4826,7 +4869,7 @@
     </row>
     <row r="148" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE148" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF148">
         <v>5700</v>
@@ -4834,7 +4877,7 @@
     </row>
     <row r="149" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE149" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF149">
         <v>5700</v>
@@ -4842,7 +4885,7 @@
     </row>
     <row r="150" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE150" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF150">
         <v>5700</v>
@@ -4850,7 +4893,7 @@
     </row>
     <row r="151" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE151" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF151">
         <v>5700</v>
@@ -4858,7 +4901,7 @@
     </row>
     <row r="152" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE152" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF152">
         <v>10600</v>
@@ -4866,7 +4909,7 @@
     </row>
     <row r="153" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE153" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF153">
         <v>5700</v>
@@ -4874,7 +4917,7 @@
     </row>
     <row r="154" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE154" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF154">
         <v>5700</v>
@@ -4882,7 +4925,7 @@
     </row>
     <row r="155" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE155" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF155">
         <v>5700</v>
@@ -4890,7 +4933,7 @@
     </row>
     <row r="156" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE156" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF156">
         <v>10600</v>
@@ -4898,7 +4941,7 @@
     </row>
     <row r="157" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF157">
         <v>5700</v>
@@ -4906,7 +4949,7 @@
     </row>
     <row r="158" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE158" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF158">
         <v>20000</v>
@@ -4914,7 +4957,7 @@
     </row>
     <row r="159" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF159">
         <v>5700</v>
@@ -4922,7 +4965,7 @@
     </row>
     <row r="160" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE160" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF160">
         <v>10600</v>
@@ -4930,7 +4973,7 @@
     </row>
     <row r="161" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE161" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF161">
         <v>5700</v>
@@ -4938,7 +4981,7 @@
     </row>
     <row r="162" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE162" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF162">
         <v>20000</v>
@@ -4946,7 +4989,7 @@
     </row>
     <row r="163" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE163" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF163">
         <v>10600</v>
@@ -4954,7 +4997,7 @@
     </row>
     <row r="164" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE164" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF164">
         <v>5700</v>
@@ -4962,7 +5005,7 @@
     </row>
     <row r="165" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE165" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF165">
         <v>5700</v>
@@ -4970,7 +5013,7 @@
     </row>
     <row r="166" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE166" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF166">
         <v>10600</v>
@@ -4978,7 +5021,7 @@
     </row>
     <row r="167" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE167" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF167">
         <v>10600</v>
@@ -4986,7 +5029,7 @@
     </row>
     <row r="168" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE168" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF168">
         <v>20000</v>
@@ -4994,7 +5037,7 @@
     </row>
     <row r="169" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE169" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF169">
         <v>5700</v>
@@ -5002,7 +5045,7 @@
     </row>
     <row r="170" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE170" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF170">
         <v>5700</v>
@@ -5010,7 +5053,7 @@
     </row>
     <row r="171" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE171" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF171">
         <v>5700</v>
@@ -5018,7 +5061,7 @@
     </row>
     <row r="172" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE172" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF172">
         <v>5700</v>
@@ -5026,7 +5069,7 @@
     </row>
     <row r="173" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE173" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF173">
         <v>5700</v>
@@ -5034,7 +5077,7 @@
     </row>
     <row r="174" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE174" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF174">
         <v>5700</v>
@@ -5042,7 +5085,7 @@
     </row>
     <row r="175" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE175" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF175">
         <v>5700</v>
@@ -5050,7 +5093,7 @@
     </row>
     <row r="176" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE176" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF176">
         <v>5700</v>
@@ -5058,7 +5101,7 @@
     </row>
     <row r="177" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE177" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF177">
         <v>20000</v>
@@ -5066,7 +5109,7 @@
     </row>
     <row r="178" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE178" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF178">
         <v>20000</v>
@@ -5074,7 +5117,7 @@
     </row>
     <row r="179" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE179" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF179">
         <v>20000</v>
@@ -5082,7 +5125,7 @@
     </row>
     <row r="180" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE180" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF180">
         <v>5700</v>
@@ -5090,7 +5133,7 @@
     </row>
     <row r="181" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE181" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF181">
         <v>5700</v>
@@ -5098,7 +5141,7 @@
     </row>
     <row r="182" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE182" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF182">
         <v>10600</v>
@@ -5106,7 +5149,7 @@
     </row>
     <row r="183" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE183" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF183">
         <v>20000</v>
@@ -5114,7 +5157,7 @@
     </row>
     <row r="184" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE184" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF184">
         <v>10600</v>
@@ -5122,7 +5165,7 @@
     </row>
     <row r="185" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE185" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF185">
         <v>5700</v>
@@ -5130,7 +5173,7 @@
     </row>
     <row r="186" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE186" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF186">
         <v>5700</v>
@@ -5138,7 +5181,7 @@
     </row>
     <row r="187" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE187" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF187">
         <v>5700</v>
@@ -5146,7 +5189,7 @@
     </row>
     <row r="188" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE188" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF188">
         <v>10600</v>
@@ -5154,7 +5197,7 @@
     </row>
     <row r="189" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE189" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF189">
         <v>5700</v>
@@ -5162,7 +5205,7 @@
     </row>
     <row r="190" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE190" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF190">
         <v>10600</v>
@@ -5170,7 +5213,7 @@
     </row>
     <row r="191" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE191" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF191">
         <v>10600</v>
@@ -5178,7 +5221,7 @@
     </row>
     <row r="192" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE192" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF192">
         <v>5700</v>
@@ -5186,7 +5229,7 @@
     </row>
     <row r="193" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE193" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF193">
         <v>5700</v>
@@ -5194,7 +5237,7 @@
     </row>
     <row r="194" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE194" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF194">
         <v>5700</v>
@@ -5202,7 +5245,7 @@
     </row>
     <row r="195" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE195" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF195">
         <v>5700</v>
@@ -5210,7 +5253,7 @@
     </row>
     <row r="196" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE196" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF196">
         <v>5700</v>
@@ -5218,7 +5261,7 @@
     </row>
     <row r="197" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE197" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF197">
         <v>5700</v>
@@ -5226,7 +5269,7 @@
     </row>
     <row r="198" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE198" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF198">
         <v>10600</v>
@@ -5234,7 +5277,7 @@
     </row>
     <row r="199" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE199" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF199">
         <v>10600</v>
@@ -5242,7 +5285,7 @@
     </row>
     <row r="200" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE200" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF200">
         <v>10600</v>
@@ -5250,7 +5293,7 @@
     </row>
     <row r="201" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE201" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF201">
         <v>10600</v>
@@ -5258,7 +5301,7 @@
     </row>
     <row r="202" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE202" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF202">
         <v>20000</v>
@@ -5266,7 +5309,7 @@
     </row>
     <row r="203" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE203" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF203">
         <v>10600</v>
@@ -5274,7 +5317,7 @@
     </row>
     <row r="204" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE204" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF204">
         <v>10600</v>
@@ -5282,7 +5325,7 @@
     </row>
     <row r="205" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE205" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF205">
         <v>5700</v>
@@ -5290,7 +5333,7 @@
     </row>
     <row r="206" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE206" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF206">
         <v>20000</v>
@@ -5298,7 +5341,7 @@
     </row>
     <row r="207" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE207" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF207">
         <v>5700</v>
@@ -5306,7 +5349,7 @@
     </row>
     <row r="208" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE208" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF208">
         <v>10600</v>
@@ -5314,7 +5357,7 @@
     </row>
     <row r="209" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE209" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF209">
         <v>20000</v>
@@ -5322,7 +5365,7 @@
     </row>
     <row r="210" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE210" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF210">
         <v>10600</v>
@@ -5330,7 +5373,7 @@
     </row>
     <row r="211" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE211" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF211">
         <v>5700</v>
@@ -5338,7 +5381,7 @@
     </row>
     <row r="212" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE212" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF212">
         <v>5700</v>
@@ -5346,7 +5389,7 @@
     </row>
     <row r="213" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE213" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF213">
         <v>20000</v>
@@ -5354,7 +5397,7 @@
     </row>
     <row r="214" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE214" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF214">
         <v>5700</v>
@@ -5362,7 +5405,7 @@
     </row>
     <row r="215" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE215" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF215">
         <v>20000</v>
@@ -5370,7 +5413,7 @@
     </row>
     <row r="216" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE216" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF216">
         <v>5700</v>
@@ -5378,7 +5421,7 @@
     </row>
     <row r="217" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE217" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF217">
         <v>10600</v>
@@ -5386,7 +5429,7 @@
     </row>
     <row r="218" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE218" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF218">
         <v>20000</v>
@@ -5394,7 +5437,7 @@
     </row>
     <row r="219" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE219" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF219">
         <v>5700</v>
@@ -5402,7 +5445,7 @@
     </row>
     <row r="220" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE220" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF220">
         <v>5700</v>
@@ -5410,7 +5453,7 @@
     </row>
     <row r="221" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE221" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF221">
         <v>10600</v>
@@ -5418,7 +5461,7 @@
     </row>
     <row r="222" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE222" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF222">
         <v>5700</v>
@@ -5426,7 +5469,7 @@
     </row>
     <row r="223" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE223" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF223">
         <v>10600</v>
@@ -5434,7 +5477,7 @@
     </row>
     <row r="224" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE224" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF224">
         <v>10600</v>
@@ -5442,7 +5485,7 @@
     </row>
     <row r="225" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE225" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF225">
         <v>5700</v>
@@ -5450,7 +5493,7 @@
     </row>
     <row r="226" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE226" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF226">
         <v>5700</v>
@@ -5458,7 +5501,7 @@
     </row>
     <row r="227" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE227" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF227">
         <v>20000</v>
@@ -5466,7 +5509,7 @@
     </row>
     <row r="228" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE228" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF228">
         <v>10600</v>
@@ -5474,7 +5517,7 @@
     </row>
     <row r="229" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE229" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF229">
         <v>20000</v>
@@ -5482,7 +5525,7 @@
     </row>
     <row r="230" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE230" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF230">
         <v>20000</v>
@@ -5490,7 +5533,7 @@
     </row>
     <row r="231" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE231" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF231">
         <v>5700</v>
@@ -5498,7 +5541,7 @@
     </row>
     <row r="232" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE232" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF232">
         <v>5700</v>
@@ -5506,7 +5549,7 @@
     </row>
     <row r="233" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE233" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF233">
         <v>5700</v>
@@ -5514,7 +5557,7 @@
     </row>
     <row r="234" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE234" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF234">
         <v>10600</v>
@@ -5522,7 +5565,7 @@
     </row>
     <row r="235" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE235" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF235">
         <v>5700</v>
@@ -5530,7 +5573,7 @@
     </row>
     <row r="236" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE236" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF236">
         <v>10600</v>
@@ -5538,7 +5581,7 @@
     </row>
     <row r="237" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE237" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF237">
         <v>10600</v>
@@ -5546,7 +5589,7 @@
     </row>
     <row r="238" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE238" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF238">
         <v>20000</v>
@@ -5554,7 +5597,7 @@
     </row>
     <row r="239" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE239" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF239">
         <v>20000</v>
@@ -5562,7 +5605,7 @@
     </row>
     <row r="240" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE240" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF240">
         <v>5700</v>
@@ -5570,7 +5613,7 @@
     </row>
     <row r="241" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE241" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF241">
         <v>5700</v>
@@ -5578,7 +5621,7 @@
     </row>
     <row r="242" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE242" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF242">
         <v>10600</v>
@@ -5586,7 +5629,7 @@
     </row>
     <row r="243" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE243" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF243">
         <v>20000</v>
@@ -5594,7 +5637,7 @@
     </row>
     <row r="244" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE244" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF244">
         <v>5700</v>
@@ -5602,7 +5645,7 @@
     </row>
     <row r="245" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE245" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF245">
         <v>5700</v>
@@ -5610,7 +5653,7 @@
     </row>
     <row r="246" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE246" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF246">
         <v>20000</v>
@@ -5618,7 +5661,7 @@
     </row>
     <row r="247" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE247" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF247">
         <v>10600</v>
@@ -5626,7 +5669,7 @@
     </row>
     <row r="248" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE248" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF248">
         <v>5700</v>
@@ -5634,7 +5677,7 @@
     </row>
     <row r="249" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE249" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF249">
         <v>5700</v>
@@ -5642,7 +5685,7 @@
     </row>
     <row r="250" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE250" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF250">
         <v>5700</v>
@@ -5650,7 +5693,7 @@
     </row>
     <row r="251" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE251" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF251">
         <v>5700</v>
@@ -5658,7 +5701,7 @@
     </row>
     <row r="252" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE252" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF252">
         <v>5700</v>
@@ -5666,7 +5709,7 @@
     </row>
     <row r="253" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE253" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF253">
         <v>10600</v>
@@ -5674,7 +5717,7 @@
     </row>
     <row r="254" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE254" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF254">
         <v>5700</v>
@@ -5682,7 +5725,7 @@
     </row>
     <row r="255" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE255" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF255">
         <v>5700</v>
@@ -5690,7 +5733,7 @@
     </row>
     <row r="256" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE256" t="s">
-        <v>314</v>
+        <v>33</v>
       </c>
       <c r="AF256">
         <v>5700</v>
@@ -6199,10 +6242,10 @@
     </row>
     <row r="4" spans="4:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8">
-        <f>SUM(D5:D24)</f>
+        <f>SUM(D5:D25)</f>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E24)</f>
+        <f>SUM(E5:E25)</f>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
@@ -6243,7 +6286,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="10">
         <v>120</v>
@@ -6297,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10">
         <v>120</v>
@@ -6351,7 +6394,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C7" s="10">
         <v>100</v>
@@ -6399,7 +6442,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" s="13">
         <v>100</v>
@@ -6447,7 +6490,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" s="13">
         <v>100</v>
@@ -6495,7 +6538,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" s="13">
         <v>90</v>
@@ -6543,7 +6586,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C11" s="13">
         <v>80</v>
@@ -7210,9 +7253,49 @@
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>7</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25" s="10">
+        <v>10</v>
+      </c>
+      <c r="D25" s="10">
+        <f>COUNTA(F25:AD25)</f>
+      </c>
+      <c r="E25" s="10">
+        <f>C25*D25</f>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
       <c r="AE25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF25">
         <v>900</v>
@@ -7220,7 +7303,7 @@
     </row>
     <row r="26" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF26">
         <v>900</v>
@@ -7228,7 +7311,7 @@
     </row>
     <row r="27" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF27">
         <v>900</v>
@@ -7236,7 +7319,7 @@
     </row>
     <row r="28" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF28">
         <v>1350</v>
@@ -7244,7 +7327,7 @@
     </row>
     <row r="29" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF29">
         <v>900</v>
@@ -7252,7 +7335,7 @@
     </row>
     <row r="30" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF30">
         <v>900</v>
@@ -7260,7 +7343,7 @@
     </row>
     <row r="31" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF31">
         <v>900</v>
@@ -7268,7 +7351,7 @@
     </row>
     <row r="32" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE32" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF32">
         <v>900</v>
@@ -7276,7 +7359,7 @@
     </row>
     <row r="33" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE33" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF33">
         <v>900</v>
@@ -7284,7 +7367,7 @@
     </row>
     <row r="34" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF34">
         <v>900</v>
@@ -7292,7 +7375,7 @@
     </row>
     <row r="35" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE35" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF35">
         <v>900</v>
@@ -7300,7 +7383,7 @@
     </row>
     <row r="36" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF36">
         <v>900</v>
@@ -7308,7 +7391,7 @@
     </row>
     <row r="37" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE37" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF37">
         <v>900</v>
@@ -7316,7 +7399,7 @@
     </row>
     <row r="38" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE38" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF38">
         <v>900</v>
@@ -7324,7 +7407,7 @@
     </row>
     <row r="39" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE39" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF39">
         <v>900</v>
@@ -7332,7 +7415,7 @@
     </row>
     <row r="40" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE40" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF40">
         <v>1350</v>
@@ -7340,7 +7423,7 @@
     </row>
     <row r="41" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE41" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF41">
         <v>900</v>
@@ -7348,7 +7431,7 @@
     </row>
     <row r="42" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF42">
         <v>900</v>
@@ -7356,7 +7439,7 @@
     </row>
     <row r="43" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF43">
         <v>900</v>
@@ -7364,7 +7447,7 @@
     </row>
     <row r="44" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE44" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF44">
         <v>900</v>
@@ -7372,7 +7455,7 @@
     </row>
     <row r="45" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE45" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF45">
         <v>900</v>
@@ -7380,7 +7463,7 @@
     </row>
     <row r="46" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE46" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF46">
         <v>1350</v>
@@ -7388,7 +7471,7 @@
     </row>
     <row r="47" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE47" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF47">
         <v>900</v>
@@ -7396,7 +7479,7 @@
     </row>
     <row r="48" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE48" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF48">
         <v>900</v>
@@ -7404,7 +7487,7 @@
     </row>
     <row r="49" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE49" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF49">
         <v>900</v>
@@ -7412,7 +7495,7 @@
     </row>
     <row r="50" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE50" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF50">
         <v>900</v>
@@ -7420,7 +7503,7 @@
     </row>
     <row r="51" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE51" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF51">
         <v>2900</v>
@@ -7428,7 +7511,7 @@
     </row>
     <row r="52" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE52" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF52">
         <v>900</v>
@@ -7436,7 +7519,7 @@
     </row>
     <row r="53" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE53" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF53">
         <v>900</v>
@@ -7444,7 +7527,7 @@
     </row>
     <row r="54" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF54">
         <v>900</v>
@@ -7452,7 +7535,7 @@
     </row>
     <row r="55" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE55" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF55">
         <v>900</v>
@@ -7460,7 +7543,7 @@
     </row>
     <row r="56" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE56" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF56">
         <v>900</v>
@@ -7468,7 +7551,7 @@
     </row>
     <row r="57" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE57" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF57">
         <v>900</v>
@@ -7476,7 +7559,7 @@
     </row>
     <row r="58" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE58" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF58">
         <v>1350</v>
@@ -7484,7 +7567,7 @@
     </row>
     <row r="59" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE59" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF59">
         <v>1350</v>
@@ -7492,7 +7575,7 @@
     </row>
     <row r="60" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE60" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF60">
         <v>900</v>
@@ -7500,7 +7583,7 @@
     </row>
     <row r="61" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE61" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF61">
         <v>900</v>
@@ -7508,7 +7591,7 @@
     </row>
     <row r="62" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE62" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF62">
         <v>900</v>
@@ -7516,7 +7599,7 @@
     </row>
     <row r="63" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE63" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF63">
         <v>900</v>
@@ -7524,7 +7607,7 @@
     </row>
     <row r="64" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE64" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF64">
         <v>900</v>
@@ -7532,7 +7615,7 @@
     </row>
     <row r="65" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE65" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF65">
         <v>900</v>
@@ -7540,7 +7623,7 @@
     </row>
     <row r="66" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE66" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF66">
         <v>900</v>
@@ -7548,7 +7631,7 @@
     </row>
     <row r="67" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE67" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF67">
         <v>900</v>
@@ -7556,7 +7639,7 @@
     </row>
     <row r="68" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE68" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF68">
         <v>900</v>
@@ -7564,7 +7647,7 @@
     </row>
     <row r="69" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE69" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF69">
         <v>900</v>
@@ -7572,7 +7655,7 @@
     </row>
     <row r="70" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE70" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF70">
         <v>900</v>
@@ -7580,7 +7663,7 @@
     </row>
     <row r="71" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE71" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF71">
         <v>900</v>
@@ -7588,7 +7671,7 @@
     </row>
     <row r="72" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE72" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF72">
         <v>900</v>
@@ -7596,7 +7679,7 @@
     </row>
     <row r="73" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE73" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF73">
         <v>900</v>

--- a/src/lib/gen-generic/port-battle.xlsx
+++ b/src/lib/gen-generic/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="450">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -113,852 +113,852 @@
     <t>Arecibo</t>
   </si>
   <si>
+    <t>St. Pavel</t>
+  </si>
+  <si>
+    <t>Atchafalaya</t>
+  </si>
+  <si>
+    <t>Admiraal de Ruyter</t>
+  </si>
+  <si>
+    <t>Atwoods</t>
+  </si>
+  <si>
+    <t>Implacable</t>
+  </si>
+  <si>
+    <t>Aves</t>
+  </si>
+  <si>
+    <t>Redoutable (i)</t>
+  </si>
+  <si>
+    <t>Ayamonte</t>
+  </si>
+  <si>
+    <t>Bellona</t>
+  </si>
+  <si>
+    <t>Ays</t>
+  </si>
+  <si>
+    <t>Wasa</t>
+  </si>
+  <si>
+    <t>Azua</t>
+  </si>
+  <si>
+    <t>3rd Rate</t>
+  </si>
+  <si>
+    <t>Bahía Escocesa</t>
+  </si>
+  <si>
+    <t>Constitution</t>
+  </si>
+  <si>
+    <t>Bahía Honda</t>
+  </si>
+  <si>
+    <t>USS United States</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Agamemnon</t>
+  </si>
+  <si>
+    <t>Baní</t>
+  </si>
+  <si>
+    <t>Rättvisan (i)</t>
+  </si>
+  <si>
+    <t>Baracoa</t>
+  </si>
+  <si>
+    <t>Ingermanland</t>
+  </si>
+  <si>
+    <t>Barahona</t>
+  </si>
+  <si>
+    <t>Wapen von Hamburg</t>
+  </si>
+  <si>
+    <t>Barataria</t>
+  </si>
+  <si>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Leopard (i)</t>
+  </si>
+  <si>
+    <t>Basse-Terre</t>
+  </si>
+  <si>
+    <t>Endymion</t>
+  </si>
+  <si>
+    <t>Basseterre Town</t>
+  </si>
+  <si>
+    <t>Trincomalee</t>
+  </si>
+  <si>
+    <t>Batabanó</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Beaufort</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Bensalem</t>
+  </si>
+  <si>
+    <t>L’Hermione (i)</t>
+  </si>
+  <si>
+    <t>Bernal</t>
+  </si>
+  <si>
+    <t>La Belle-Poule</t>
+  </si>
+  <si>
+    <t>Biloxi</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Black River</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Bluefields</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Bonacca</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
+  </si>
+  <si>
+    <t>Brangman’s Bluff</t>
+  </si>
+  <si>
+    <t>La Renommée</t>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Buena Vista</t>
+  </si>
+  <si>
+    <t>Hercules (i)</t>
+  </si>
+  <si>
+    <t>Cabo Cañaveral</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>Cabo de la Vela</t>
+  </si>
+  <si>
+    <t>Pandora (i)</t>
+  </si>
+  <si>
+    <t>Cabo Rojo</t>
+  </si>
+  <si>
+    <t>Le Requin (i)</t>
+  </si>
+  <si>
+    <t>Calcasieu</t>
+  </si>
+  <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Calobelo</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Camp du Roy</t>
+  </si>
+  <si>
+    <t>Mortar Brig</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
+    <t>Canalete</t>
+  </si>
+  <si>
+    <t>Caño Araguabisi</t>
+  </si>
+  <si>
+    <t>Caño Araguao</t>
+  </si>
+  <si>
+    <t>Caño Macareo</t>
+  </si>
+  <si>
+    <t>Cap-Français</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Cariaco</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Carriacou</t>
+  </si>
+  <si>
+    <t>Cartagena de Indias</t>
+  </si>
+  <si>
+    <t>Carúpano</t>
+  </si>
+  <si>
+    <t>Casigua</t>
+  </si>
+  <si>
+    <t>Castries</t>
+  </si>
+  <si>
+    <t>Cayman Brac</t>
+  </si>
+  <si>
+    <t>Cayo Biscayno</t>
+  </si>
+  <si>
+    <t>Cayo de Sal</t>
+  </si>
+  <si>
+    <t>Cayo del Anclote</t>
+  </si>
+  <si>
+    <t>Cayo Romano</t>
+  </si>
+  <si>
+    <t>Chagres</t>
+  </si>
+  <si>
+    <t>Champotón</t>
+  </si>
+  <si>
+    <t>Charles Town</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Christiansted</t>
+  </si>
+  <si>
+    <t>Codrington</t>
+  </si>
+  <si>
+    <t>Cojoro</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Congrios</t>
+  </si>
+  <si>
+    <t>Conil</t>
+  </si>
+  <si>
+    <t>Constance</t>
+  </si>
+  <si>
+    <t>Conttoy</t>
+  </si>
+  <si>
+    <t>Coquibacoa</t>
+  </si>
+  <si>
+    <t>Coral Bay</t>
+  </si>
+  <si>
+    <t>Coro</t>
+  </si>
+  <si>
+    <t>Corrientes</t>
+  </si>
+  <si>
+    <t>Cul-de-Sac</t>
+  </si>
+  <si>
+    <t>Cumaná</t>
+  </si>
+  <si>
+    <t>Dariena</t>
+  </si>
+  <si>
+    <t>Deshaies</t>
+  </si>
+  <si>
+    <t>El Cuyo</t>
+  </si>
+  <si>
+    <t>El Rancho</t>
+  </si>
+  <si>
+    <t>El Soco</t>
+  </si>
+  <si>
+    <t>El Toco</t>
+  </si>
+  <si>
+    <t>Encontrados</t>
+  </si>
+  <si>
+    <t>English Harbour</t>
+  </si>
+  <si>
+    <t>Espíritu Santo</t>
+  </si>
+  <si>
+    <t>Esteros</t>
+  </si>
+  <si>
+    <t>Fajardo</t>
+  </si>
+  <si>
+    <t>Flatts</t>
+  </si>
+  <si>
+    <t>Fort Baai</t>
+  </si>
+  <si>
+    <t>Fort Oranje</t>
+  </si>
+  <si>
+    <t>Fort Zoutman</t>
+  </si>
+  <si>
+    <t>Fort-Dauphin</t>
+  </si>
+  <si>
+    <t>Fort-Royal</t>
+  </si>
+  <si>
+    <t>Frederiksted</t>
+  </si>
+  <si>
+    <t>Galdonas</t>
+  </si>
+  <si>
+    <t>Gasparilla</t>
+  </si>
+  <si>
+    <t>George Town</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Gracias a Dios</t>
+  </si>
+  <si>
+    <t>Grand Anse</t>
+  </si>
+  <si>
+    <t>Grand Turk</t>
+  </si>
+  <si>
+    <t>Great Corn</t>
+  </si>
+  <si>
+    <t>Great River</t>
+  </si>
+  <si>
+    <t>Grindstone</t>
+  </si>
+  <si>
+    <t>Guamá Sevilla</t>
+  </si>
+  <si>
+    <t>Guánica</t>
+  </si>
+  <si>
+    <t>Guayaguayare</t>
+  </si>
+  <si>
+    <t>Guayama</t>
+  </si>
+  <si>
+    <t>Guibara</t>
+  </si>
+  <si>
+    <t>Güiria</t>
+  </si>
+  <si>
+    <t>Gustavia</t>
+  </si>
+  <si>
+    <t>Hat Island</t>
+  </si>
+  <si>
+    <t>Higüey</t>
+  </si>
+  <si>
+    <t>Islamorada</t>
+  </si>
+  <si>
+    <t>Island Harbour</t>
+  </si>
+  <si>
+    <t>Jacmel</t>
+  </si>
+  <si>
+    <t>Jagua</t>
+  </si>
+  <si>
+    <t>Jérémie</t>
+  </si>
+  <si>
+    <t>Jobe</t>
+  </si>
+  <si>
+    <t>Key West</t>
+  </si>
+  <si>
+    <t>Kidd’s Harbour</t>
+  </si>
+  <si>
+    <t>Kingston / Port Royal</t>
+  </si>
+  <si>
+    <t>Kingstown</t>
+  </si>
+  <si>
+    <t>La Blanquilla</t>
+  </si>
+  <si>
+    <t>La Désirade</t>
+  </si>
+  <si>
+    <t>La Habana</t>
+  </si>
+  <si>
+    <t>La Isabela</t>
+  </si>
+  <si>
+    <t>La Mona</t>
+  </si>
+  <si>
+    <t>La Moussette</t>
+  </si>
+  <si>
+    <t>La Navasse</t>
+  </si>
+  <si>
+    <t>La Orchilla</t>
+  </si>
+  <si>
+    <t>La Tortue</t>
+  </si>
+  <si>
+    <t>La Trinité</t>
+  </si>
+  <si>
+    <t>Lagunillas</t>
+  </si>
+  <si>
+    <t>Las Aves</t>
+  </si>
+  <si>
+    <t>Las Tortugas</t>
+  </si>
+  <si>
+    <t>Le Moule</t>
+  </si>
+  <si>
+    <t>Léogane</t>
+  </si>
+  <si>
+    <t>Les Cayes</t>
+  </si>
+  <si>
+    <t>Les Gonaïves</t>
+  </si>
+  <si>
+    <t>Little Cayman</t>
+  </si>
+  <si>
+    <t>Little Inagua</t>
+  </si>
+  <si>
+    <t>Little River</t>
+  </si>
+  <si>
+    <t>Lorimers</t>
+  </si>
+  <si>
+    <t>Macanao</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Manataca</t>
+  </si>
+  <si>
+    <t>Mandinga</t>
+  </si>
+  <si>
+    <t>Mantua</t>
+  </si>
+  <si>
+    <t>Manzanillo</t>
+  </si>
+  <si>
+    <t>Maracaibo</t>
+  </si>
+  <si>
+    <t>Mariel</t>
+  </si>
+  <si>
+    <t>Marigot</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Matanzas</t>
+  </si>
+  <si>
+    <t>Matina</t>
+  </si>
+  <si>
+    <t>Misteriosa</t>
+  </si>
+  <si>
+    <t>Mitara</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Montecristi</t>
+  </si>
+  <si>
+    <t>Montego Bay</t>
+  </si>
+  <si>
+    <t>Morro Chico</t>
+  </si>
+  <si>
+    <t>Mortimer Town</t>
+  </si>
+  <si>
+    <t>Mugeres</t>
+  </si>
+  <si>
+    <t>Naparima</t>
+  </si>
+  <si>
+    <t>New Edinburgh</t>
+  </si>
+  <si>
+    <t>New Smyrna</t>
+  </si>
+  <si>
+    <t>Nippes</t>
+  </si>
+  <si>
+    <t>North Inlet</t>
+  </si>
+  <si>
+    <t>Nouvelle-Orléans</t>
+  </si>
+  <si>
+    <t>Nueva Barcelona</t>
+  </si>
+  <si>
+    <t>Nuevitas</t>
+  </si>
+  <si>
+    <t>Ocean Bight</t>
+  </si>
+  <si>
+    <t>Old Providence</t>
+  </si>
+  <si>
+    <t>Omoa</t>
+  </si>
+  <si>
+    <t>Oranjestad</t>
+  </si>
+  <si>
+    <t>Pampatar</t>
+  </si>
+  <si>
+    <t>Parrot Cay</t>
+  </si>
+  <si>
+    <t>Pasaje</t>
+  </si>
+  <si>
+    <t>Pedernales</t>
+  </si>
+  <si>
+    <t>Penzacola</t>
+  </si>
+  <si>
+    <t>Perijá</t>
+  </si>
+  <si>
+    <t>Philipsburg</t>
+  </si>
+  <si>
+    <t>Pinar del Río</t>
+  </si>
+  <si>
+    <t>Píritu</t>
+  </si>
+  <si>
+    <t>Pitt’s Town</t>
+  </si>
+  <si>
+    <t>Placentia</t>
+  </si>
+  <si>
+    <t>Placer</t>
+  </si>
+  <si>
+    <t>Playón</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Pointe-à-Pitre</t>
+  </si>
+  <si>
+    <t>Ponce</t>
+  </si>
+  <si>
+    <t>Port Antonio</t>
+  </si>
+  <si>
+    <t>Port Morant</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>Port-de-Paix</t>
+  </si>
+  <si>
+    <t>Port-Louis</t>
+  </si>
+  <si>
+    <t>Portillo</t>
+  </si>
+  <si>
+    <t>Portobelo</t>
+  </si>
+  <si>
+    <t>Prinzapolka</t>
+  </si>
+  <si>
+    <t>Puerto Cabello</t>
+  </si>
+  <si>
+    <t>Puerto de España</t>
+  </si>
+  <si>
+    <t>Puerto de Nipe</t>
+  </si>
+  <si>
+    <t>Puerto del Padre</t>
+  </si>
+  <si>
+    <t>Puerto Escondido</t>
+  </si>
+  <si>
+    <t>Puerto Plata</t>
+  </si>
+  <si>
+    <t>Puerto Real</t>
+  </si>
+  <si>
+    <t>Remedios</t>
+  </si>
+  <si>
+    <t>Rincón</t>
+  </si>
+  <si>
+    <t>Río Chico</t>
+  </si>
+  <si>
+    <t>Río de la Hacha</t>
+  </si>
+  <si>
+    <t>Río Seco</t>
+  </si>
+  <si>
+    <t>Río Tocuyo</t>
+  </si>
+  <si>
+    <t>Road Town</t>
+  </si>
+  <si>
+    <t>Robras</t>
+  </si>
+  <si>
+    <t>Rosaly</t>
+  </si>
+  <si>
+    <t>Roseau</t>
+  </si>
+  <si>
+    <t>Ruatan</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>Saint Ann</t>
+  </si>
+  <si>
+    <t>Saint George</t>
+  </si>
+  <si>
+    <t>Saint George’s Town</t>
+  </si>
+  <si>
+    <t>Saint John’s</t>
+  </si>
+  <si>
+    <t>Saint Joseph</t>
+  </si>
+  <si>
+    <t>Saint Marys</t>
+  </si>
+  <si>
+    <t>Saint-François</t>
+  </si>
+  <si>
+    <t>Saint-Louis</t>
+  </si>
+  <si>
+    <t>Saint-Malo</t>
+  </si>
+  <si>
+    <t>Saint-Marc</t>
+  </si>
+  <si>
+    <t>Saint-Nicolas</t>
+  </si>
+  <si>
+    <t>Saint-Pierre</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t>Sale-Trou</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Samaná</t>
+  </si>
+  <si>
+    <t>San Agustín</t>
+  </si>
+  <si>
+    <t>San Andrés</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>San Juan del Norte</t>
+  </si>
+  <si>
+    <t>San Lazaro</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>San Mateo</t>
+  </si>
+  <si>
+    <t>San Sebastian</t>
+  </si>
+  <si>
+    <t>San Timoteo</t>
+  </si>
+  <si>
+    <t>Sancti Spíritus</t>
+  </si>
+  <si>
+    <t>Sandy Bay</t>
+  </si>
+  <si>
+    <t>Sandy Hill</t>
+  </si>
+  <si>
     <t>Santa Ana</t>
   </si>
   <si>
-    <t>Atchafalaya</t>
-  </si>
-  <si>
-    <t>St. Pavel</t>
-  </si>
-  <si>
-    <t>Atwoods</t>
-  </si>
-  <si>
-    <t>Admiraal de Ruyter</t>
-  </si>
-  <si>
-    <t>Aves</t>
-  </si>
-  <si>
-    <t>Implacable</t>
-  </si>
-  <si>
-    <t>Ayamonte</t>
-  </si>
-  <si>
-    <t>Redoutable (i)</t>
-  </si>
-  <si>
-    <t>Ays</t>
-  </si>
-  <si>
-    <t>Bellona</t>
-  </si>
-  <si>
-    <t>Azua</t>
-  </si>
-  <si>
-    <t>Wasa</t>
-  </si>
-  <si>
-    <t>Bahía Escocesa</t>
-  </si>
-  <si>
-    <t>3rd Rate</t>
-  </si>
-  <si>
-    <t>Bahía Honda</t>
-  </si>
-  <si>
-    <t>Constitution</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>USS United States</t>
-  </si>
-  <si>
-    <t>Baní</t>
-  </si>
-  <si>
-    <t>Agamemnon</t>
-  </si>
-  <si>
-    <t>Baracoa</t>
-  </si>
-  <si>
-    <t>Rättvisan (i)</t>
-  </si>
-  <si>
-    <t>Barahona</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
-  </si>
-  <si>
-    <t>Barataria</t>
-  </si>
-  <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
-    <t>Barranquilla</t>
-  </si>
-  <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Basse-Terre</t>
-  </si>
-  <si>
-    <t>Leopard (i)</t>
-  </si>
-  <si>
-    <t>Basseterre Town</t>
-  </si>
-  <si>
-    <t>Endymion</t>
-  </si>
-  <si>
-    <t>Batabanó</t>
-  </si>
-  <si>
-    <t>Trincomalee</t>
-  </si>
-  <si>
-    <t>Beaufort</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Bensalem</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>Bernal</t>
-  </si>
-  <si>
-    <t>L’Hermione (i)</t>
-  </si>
-  <si>
-    <t>Biloxi</t>
-  </si>
-  <si>
-    <t>La Belle-Poule</t>
-  </si>
-  <si>
-    <t>Black River</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Bluefields</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>Bonacca</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Brangman’s Bluff</t>
-  </si>
-  <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
-    <t>Bridgetown</t>
-  </si>
-  <si>
-    <t>La Renommée</t>
-  </si>
-  <si>
-    <t>Brunswick</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>Buena Vista</t>
-  </si>
-  <si>
-    <t>Surprise</t>
-  </si>
-  <si>
-    <t>Cabo Cañaveral</t>
-  </si>
-  <si>
-    <t>Hercules (i)</t>
-  </si>
-  <si>
-    <t>Cabo de la Vela</t>
-  </si>
-  <si>
-    <t>Cerberus</t>
-  </si>
-  <si>
-    <t>Cabo Rojo</t>
-  </si>
-  <si>
-    <t>Pandora (i)</t>
-  </si>
-  <si>
-    <t>Calcasieu</t>
-  </si>
-  <si>
-    <t>Le Requin (i)</t>
-  </si>
-  <si>
-    <t>Calobelo</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
-    <t>Camp du Roy</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Campeche</t>
-  </si>
-  <si>
-    <t>Mortar Brig</t>
-  </si>
-  <si>
-    <t>Canalete</t>
-  </si>
-  <si>
-    <t>Caño Araguabisi</t>
-  </si>
-  <si>
-    <t>Caño Araguao</t>
-  </si>
-  <si>
-    <t>Caño Macareo</t>
-  </si>
-  <si>
-    <t>Cap-Français</t>
-  </si>
-  <si>
-    <t>Caracas</t>
-  </si>
-  <si>
-    <t>Cariaco</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Carriacou</t>
-  </si>
-  <si>
-    <t>Cartagena de Indias</t>
-  </si>
-  <si>
-    <t>Carúpano</t>
-  </si>
-  <si>
-    <t>Casigua</t>
-  </si>
-  <si>
-    <t>Castries</t>
-  </si>
-  <si>
-    <t>Cayman Brac</t>
-  </si>
-  <si>
-    <t>Cayo Biscayno</t>
-  </si>
-  <si>
-    <t>Cayo de Sal</t>
-  </si>
-  <si>
-    <t>Cayo del Anclote</t>
-  </si>
-  <si>
-    <t>Cayo Romano</t>
-  </si>
-  <si>
-    <t>Chagres</t>
-  </si>
-  <si>
-    <t>Champotón</t>
-  </si>
-  <si>
-    <t>Charles Town</t>
-  </si>
-  <si>
-    <t>Charleston</t>
-  </si>
-  <si>
-    <t>Christiansted</t>
-  </si>
-  <si>
-    <t>Codrington</t>
-  </si>
-  <si>
-    <t>Cojoro</t>
-  </si>
-  <si>
-    <t>Concepción</t>
-  </si>
-  <si>
-    <t>Congrios</t>
-  </si>
-  <si>
-    <t>Conil</t>
-  </si>
-  <si>
-    <t>Constance</t>
-  </si>
-  <si>
-    <t>Conttoy</t>
-  </si>
-  <si>
-    <t>Coquibacoa</t>
-  </si>
-  <si>
-    <t>Coral Bay</t>
-  </si>
-  <si>
-    <t>Coro</t>
-  </si>
-  <si>
-    <t>Corrientes</t>
-  </si>
-  <si>
-    <t>Cul-de-Sac</t>
-  </si>
-  <si>
-    <t>Cumaná</t>
-  </si>
-  <si>
-    <t>Dariena</t>
-  </si>
-  <si>
-    <t>Deshaies</t>
-  </si>
-  <si>
-    <t>El Cuyo</t>
-  </si>
-  <si>
-    <t>El Rancho</t>
-  </si>
-  <si>
-    <t>El Soco</t>
-  </si>
-  <si>
-    <t>El Toco</t>
-  </si>
-  <si>
-    <t>Encontrados</t>
-  </si>
-  <si>
-    <t>English Harbour</t>
-  </si>
-  <si>
-    <t>Espíritu Santo</t>
-  </si>
-  <si>
-    <t>Esteros</t>
-  </si>
-  <si>
-    <t>Fajardo</t>
-  </si>
-  <si>
-    <t>Flatts</t>
-  </si>
-  <si>
-    <t>Fort Baai</t>
-  </si>
-  <si>
-    <t>Fort Oranje</t>
-  </si>
-  <si>
-    <t>Fort Zoutman</t>
-  </si>
-  <si>
-    <t>Fort-Dauphin</t>
-  </si>
-  <si>
-    <t>Fort-Royal</t>
-  </si>
-  <si>
-    <t>Frederiksted</t>
-  </si>
-  <si>
-    <t>Galdonas</t>
-  </si>
-  <si>
-    <t>Gasparilla</t>
-  </si>
-  <si>
-    <t>George Town</t>
-  </si>
-  <si>
-    <t>Georgetown</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Gracias a Dios</t>
-  </si>
-  <si>
-    <t>Grand Anse</t>
-  </si>
-  <si>
-    <t>Grand Turk</t>
-  </si>
-  <si>
-    <t>Great Corn</t>
-  </si>
-  <si>
-    <t>Great River</t>
-  </si>
-  <si>
-    <t>Grindstone</t>
-  </si>
-  <si>
-    <t>Guamá Sevilla</t>
-  </si>
-  <si>
-    <t>Guánica</t>
-  </si>
-  <si>
-    <t>Guayaguayare</t>
-  </si>
-  <si>
-    <t>Guayama</t>
-  </si>
-  <si>
-    <t>Guibara</t>
-  </si>
-  <si>
-    <t>Güiria</t>
-  </si>
-  <si>
-    <t>Gustavia</t>
-  </si>
-  <si>
-    <t>Hat Island</t>
-  </si>
-  <si>
-    <t>Higüey</t>
-  </si>
-  <si>
-    <t>Islamorada</t>
-  </si>
-  <si>
-    <t>Island Harbour</t>
-  </si>
-  <si>
-    <t>Jacmel</t>
-  </si>
-  <si>
-    <t>Jagua</t>
-  </si>
-  <si>
-    <t>Jérémie</t>
-  </si>
-  <si>
-    <t>Jobe</t>
-  </si>
-  <si>
-    <t>Key West</t>
-  </si>
-  <si>
-    <t>Kidd’s Harbour</t>
-  </si>
-  <si>
-    <t>Kingston / Port Royal</t>
-  </si>
-  <si>
-    <t>Kingstown</t>
-  </si>
-  <si>
-    <t>La Blanquilla</t>
-  </si>
-  <si>
-    <t>La Désirade</t>
-  </si>
-  <si>
-    <t>La Habana</t>
-  </si>
-  <si>
-    <t>La Isabela</t>
-  </si>
-  <si>
-    <t>La Mona</t>
-  </si>
-  <si>
-    <t>La Moussette</t>
-  </si>
-  <si>
-    <t>La Navasse</t>
-  </si>
-  <si>
-    <t>La Orchilla</t>
-  </si>
-  <si>
-    <t>La Tortue</t>
-  </si>
-  <si>
-    <t>La Trinité</t>
-  </si>
-  <si>
-    <t>Lagunillas</t>
-  </si>
-  <si>
-    <t>Las Aves</t>
-  </si>
-  <si>
-    <t>Las Tortugas</t>
-  </si>
-  <si>
-    <t>Le Moule</t>
-  </si>
-  <si>
-    <t>Léogane</t>
-  </si>
-  <si>
-    <t>Les Cayes</t>
-  </si>
-  <si>
-    <t>Les Gonaïves</t>
-  </si>
-  <si>
-    <t>Little Cayman</t>
-  </si>
-  <si>
-    <t>Little Inagua</t>
-  </si>
-  <si>
-    <t>Little River</t>
-  </si>
-  <si>
-    <t>Lorimers</t>
-  </si>
-  <si>
-    <t>Macanao</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Manataca</t>
-  </si>
-  <si>
-    <t>Mandinga</t>
-  </si>
-  <si>
-    <t>Mantua</t>
-  </si>
-  <si>
-    <t>Manzanillo</t>
-  </si>
-  <si>
-    <t>Maracaibo</t>
-  </si>
-  <si>
-    <t>Mariel</t>
-  </si>
-  <si>
-    <t>Marigot</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Matanzas</t>
-  </si>
-  <si>
-    <t>Matina</t>
-  </si>
-  <si>
-    <t>Misteriosa</t>
-  </si>
-  <si>
-    <t>Mitara</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Montecristi</t>
-  </si>
-  <si>
-    <t>Montego Bay</t>
-  </si>
-  <si>
-    <t>Morro Chico</t>
-  </si>
-  <si>
-    <t>Mortimer Town</t>
-  </si>
-  <si>
-    <t>Mugeres</t>
-  </si>
-  <si>
-    <t>Naparima</t>
-  </si>
-  <si>
-    <t>New Edinburgh</t>
-  </si>
-  <si>
-    <t>New Smyrna</t>
-  </si>
-  <si>
-    <t>Nippes</t>
-  </si>
-  <si>
-    <t>North Inlet</t>
-  </si>
-  <si>
-    <t>Nouvelle-Orléans</t>
-  </si>
-  <si>
-    <t>Nueva Barcelona</t>
-  </si>
-  <si>
-    <t>Nuevitas</t>
-  </si>
-  <si>
-    <t>Ocean Bight</t>
-  </si>
-  <si>
-    <t>Old Providence</t>
-  </si>
-  <si>
-    <t>Omoa</t>
-  </si>
-  <si>
-    <t>Oranjestad</t>
-  </si>
-  <si>
-    <t>Pampatar</t>
-  </si>
-  <si>
-    <t>Parrot Cay</t>
-  </si>
-  <si>
-    <t>Pasaje</t>
-  </si>
-  <si>
-    <t>Pedernales</t>
-  </si>
-  <si>
-    <t>Penzacola</t>
-  </si>
-  <si>
-    <t>Perijá</t>
-  </si>
-  <si>
-    <t>Philipsburg</t>
-  </si>
-  <si>
-    <t>Pinar del Río</t>
-  </si>
-  <si>
-    <t>Píritu</t>
-  </si>
-  <si>
-    <t>Pitt’s Town</t>
-  </si>
-  <si>
-    <t>Placentia</t>
-  </si>
-  <si>
-    <t>Placer</t>
-  </si>
-  <si>
-    <t>Playón</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Pointe-à-Pitre</t>
-  </si>
-  <si>
-    <t>Ponce</t>
-  </si>
-  <si>
-    <t>Port Antonio</t>
-  </si>
-  <si>
-    <t>Port Morant</t>
-  </si>
-  <si>
-    <t>Port-au-Prince</t>
-  </si>
-  <si>
-    <t>Port-de-Paix</t>
-  </si>
-  <si>
-    <t>Port-Louis</t>
-  </si>
-  <si>
-    <t>Portillo</t>
-  </si>
-  <si>
-    <t>Portobelo</t>
-  </si>
-  <si>
-    <t>Prinzapolka</t>
-  </si>
-  <si>
-    <t>Puerto Cabello</t>
-  </si>
-  <si>
-    <t>Puerto de España</t>
-  </si>
-  <si>
-    <t>Puerto de Nipe</t>
-  </si>
-  <si>
-    <t>Puerto del Padre</t>
-  </si>
-  <si>
-    <t>Puerto Escondido</t>
-  </si>
-  <si>
-    <t>Puerto Plata</t>
-  </si>
-  <si>
-    <t>Puerto Real</t>
-  </si>
-  <si>
-    <t>Remedios</t>
-  </si>
-  <si>
-    <t>Rincón</t>
-  </si>
-  <si>
-    <t>Río Chico</t>
-  </si>
-  <si>
-    <t>Río de la Hacha</t>
-  </si>
-  <si>
-    <t>Río Seco</t>
-  </si>
-  <si>
-    <t>Río Tocuyo</t>
-  </si>
-  <si>
-    <t>Road Town</t>
-  </si>
-  <si>
-    <t>Robras</t>
-  </si>
-  <si>
-    <t>Rosaly</t>
-  </si>
-  <si>
-    <t>Roseau</t>
-  </si>
-  <si>
-    <t>Ruatan</t>
-  </si>
-  <si>
-    <t>Sabina</t>
-  </si>
-  <si>
-    <t>Saint Ann</t>
-  </si>
-  <si>
-    <t>Saint George</t>
-  </si>
-  <si>
-    <t>Saint George’s Town</t>
-  </si>
-  <si>
-    <t>Saint John’s</t>
-  </si>
-  <si>
-    <t>Saint Joseph</t>
-  </si>
-  <si>
-    <t>Saint Marys</t>
-  </si>
-  <si>
-    <t>Saint-François</t>
-  </si>
-  <si>
-    <t>Saint-Louis</t>
-  </si>
-  <si>
-    <t>Saint-Malo</t>
-  </si>
-  <si>
-    <t>Saint-Marc</t>
-  </si>
-  <si>
-    <t>Saint-Nicolas</t>
-  </si>
-  <si>
-    <t>Saint-Pierre</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
-  </si>
-  <si>
-    <t>Sale-Trou</t>
-  </si>
-  <si>
-    <t>Salinas</t>
-  </si>
-  <si>
-    <t>Samaná</t>
-  </si>
-  <si>
-    <t>San Agustín</t>
-  </si>
-  <si>
-    <t>San Andrés</t>
-  </si>
-  <si>
-    <t>San José</t>
-  </si>
-  <si>
-    <t>San Juan</t>
-  </si>
-  <si>
-    <t>San Juan del Norte</t>
-  </si>
-  <si>
-    <t>San Lazaro</t>
-  </si>
-  <si>
-    <t>San Luis</t>
-  </si>
-  <si>
-    <t>San Mateo</t>
-  </si>
-  <si>
-    <t>San Sebastian</t>
-  </si>
-  <si>
-    <t>San Timoteo</t>
-  </si>
-  <si>
-    <t>Sancti Spíritus</t>
-  </si>
-  <si>
-    <t>Sandy Bay</t>
-  </si>
-  <si>
-    <t>Sandy Hill</t>
-  </si>
-  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
@@ -1215,9 +1215,6 @@
   </si>
   <si>
     <t>Daguilla</t>
-  </si>
-  <si>
-    <t>Travel Balloon</t>
   </si>
   <si>
     <t>Deadman’s Cay</t>
@@ -1952,10 +1949,10 @@
     </row>
     <row r="4" spans="4:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8">
-        <f>SUM(D5:D47)</f>
+        <f>SUM(D5:D46)</f>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E47)</f>
+        <f>SUM(E5:E46)</f>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
@@ -2299,7 +2296,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="13">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D11" s="13">
         <f>COUNTA(F11:AD11)</f>
@@ -2340,46 +2337,46 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>2</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="10">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="13">
-        <v>500</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12" s="10">
+        <v>550</v>
+      </c>
+      <c r="D12" s="10">
         <f>COUNTA(F12:AD12)</f>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <f>C12*D12</f>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
       <c r="AE12" t="s">
         <v>36</v>
       </c>
@@ -2491,7 +2488,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="10">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D15" s="10">
         <f>COUNTA(F15:AD15)</f>
@@ -2539,7 +2536,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="10">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D16" s="10">
         <f>COUNTA(F16:AD16)</f>
@@ -2587,7 +2584,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="10">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D17" s="10">
         <f>COUNTA(F17:AD17)</f>
@@ -2635,7 +2632,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="10">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="D18" s="10">
         <f>COUNTA(F18:AD18)</f>
@@ -2724,46 +2721,46 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>3</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="13">
+        <v>4</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="10">
-        <v>360</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="C20" s="13">
+        <v>340</v>
+      </c>
+      <c r="D20" s="13">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="13">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
       <c r="AE20" t="s">
         <v>52</v>
       </c>
@@ -2827,7 +2824,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="D22" s="13">
         <f>COUNTA(F22:AD22)</f>
@@ -2923,7 +2920,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="13">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D24" s="13">
         <f>COUNTA(F24:AD24)</f>
@@ -3012,46 +3009,46 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>4</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="10">
+        <v>5</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="13">
-        <v>290</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="C26" s="10">
+        <v>270</v>
+      </c>
+      <c r="D26" s="10">
         <f>COUNTA(F26:AD26)</f>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="10">
         <f>C26*D26</f>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
       <c r="AE26" t="s">
         <v>64</v>
       </c>
@@ -3067,7 +3064,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="10">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D27" s="10">
         <f>COUNTA(F27:AD27)</f>
@@ -3115,7 +3112,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="10">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D28" s="10">
         <f>COUNTA(F28:AD28)</f>
@@ -3163,7 +3160,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="10">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D29" s="10">
         <f>COUNTA(F29:AD29)</f>
@@ -3259,7 +3256,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="10">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D31" s="10">
         <f>COUNTA(F31:AD31)</f>
@@ -3403,7 +3400,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="10">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D34" s="10">
         <f>COUNTA(F34:AD34)</f>
@@ -3451,7 +3448,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="10">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D35" s="10">
         <f>COUNTA(F35:AD35)</f>
@@ -3499,7 +3496,7 @@
         <v>83</v>
       </c>
       <c r="C36" s="10">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D36" s="10">
         <f>COUNTA(F36:AD36)</f>
@@ -3547,7 +3544,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="10">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D37" s="10">
         <f>COUNTA(F37:AD37)</f>
@@ -3691,7 +3688,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="10">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D40" s="10">
         <f>COUNTA(F40:AD40)</f>
@@ -3739,7 +3736,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D41" s="10">
         <f>COUNTA(F41:AD41)</f>
@@ -3828,46 +3825,46 @@
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>5</v>
-      </c>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="13">
+        <v>6</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="13">
         <v>100</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="13">
         <f>COUNTA(F43:AD43)</f>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="13">
         <f>C43*D43</f>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
       <c r="AE43" t="s">
         <v>98</v>
       </c>
@@ -3931,7 +3928,7 @@
         <v>101</v>
       </c>
       <c r="C45" s="13">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D45" s="13">
         <f>COUNTA(F45:AD45)</f>
@@ -3979,7 +3976,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D46" s="13">
         <f>COUNTA(F46:AD46)</f>
@@ -4019,49 +4016,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>6</v>
-      </c>
-      <c r="B47" s="14" t="s">
+    <row r="47" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE47" t="s">
         <v>105</v>
-      </c>
-      <c r="C47" s="13">
-        <v>80</v>
-      </c>
-      <c r="D47" s="13">
-        <f>COUNTA(F47:AD47)</f>
-      </c>
-      <c r="E47" s="13">
-        <f>C47*D47</f>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="14"/>
-      <c r="AA47" s="14"/>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="14"/>
-      <c r="AD47" s="14"/>
-      <c r="AE47" t="s">
-        <v>106</v>
       </c>
       <c r="AF47">
         <v>5700</v>
@@ -4069,7 +4026,7 @@
     </row>
     <row r="48" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF48">
         <v>5700</v>
@@ -4077,7 +4034,7 @@
     </row>
     <row r="49" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF49">
         <v>5700</v>
@@ -4085,7 +4042,7 @@
     </row>
     <row r="50" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF50">
         <v>5700</v>
@@ -4093,7 +4050,7 @@
     </row>
     <row r="51" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF51">
         <v>20000</v>
@@ -4101,7 +4058,7 @@
     </row>
     <row r="52" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF52">
         <v>20000</v>
@@ -4109,7 +4066,7 @@
     </row>
     <row r="53" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF53">
         <v>10600</v>
@@ -4117,7 +4074,7 @@
     </row>
     <row r="54" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF54">
         <v>10600</v>
@@ -4125,7 +4082,7 @@
     </row>
     <row r="55" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF55">
         <v>5700</v>
@@ -4133,7 +4090,7 @@
     </row>
     <row r="56" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF56">
         <v>20000</v>
@@ -4141,7 +4098,7 @@
     </row>
     <row r="57" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF57">
         <v>5700</v>
@@ -4149,7 +4106,7 @@
     </row>
     <row r="58" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF58">
         <v>5700</v>
@@ -4157,7 +4114,7 @@
     </row>
     <row r="59" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF59">
         <v>10600</v>
@@ -4165,7 +4122,7 @@
     </row>
     <row r="60" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF60">
         <v>5700</v>
@@ -4173,7 +4130,7 @@
     </row>
     <row r="61" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF61">
         <v>5700</v>
@@ -4181,7 +4138,7 @@
     </row>
     <row r="62" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF62">
         <v>5700</v>
@@ -4189,7 +4146,7 @@
     </row>
     <row r="63" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF63">
         <v>5700</v>
@@ -4197,7 +4154,7 @@
     </row>
     <row r="64" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF64">
         <v>5700</v>
@@ -4205,7 +4162,7 @@
     </row>
     <row r="65" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF65">
         <v>20000</v>
@@ -4213,7 +4170,7 @@
     </row>
     <row r="66" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF66">
         <v>5700</v>
@@ -4221,7 +4178,7 @@
     </row>
     <row r="67" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF67">
         <v>10600</v>
@@ -4229,7 +4186,7 @@
     </row>
     <row r="68" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF68">
         <v>20000</v>
@@ -4237,7 +4194,7 @@
     </row>
     <row r="69" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF69">
         <v>20000</v>
@@ -4245,7 +4202,7 @@
     </row>
     <row r="70" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF70">
         <v>10600</v>
@@ -4253,7 +4210,7 @@
     </row>
     <row r="71" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF71">
         <v>5700</v>
@@ -4261,7 +4218,7 @@
     </row>
     <row r="72" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF72">
         <v>5700</v>
@@ -4269,7 +4226,7 @@
     </row>
     <row r="73" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF73">
         <v>5700</v>
@@ -4277,7 +4234,7 @@
     </row>
     <row r="74" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF74">
         <v>5700</v>
@@ -4285,7 +4242,7 @@
     </row>
     <row r="75" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF75">
         <v>5700</v>
@@ -4293,7 +4250,7 @@
     </row>
     <row r="76" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF76">
         <v>5700</v>
@@ -4301,7 +4258,7 @@
     </row>
     <row r="77" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF77">
         <v>5700</v>
@@ -4309,7 +4266,7 @@
     </row>
     <row r="78" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF78">
         <v>5700</v>
@@ -4317,7 +4274,7 @@
     </row>
     <row r="79" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF79">
         <v>20000</v>
@@ -4325,7 +4282,7 @@
     </row>
     <row r="80" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF80">
         <v>5700</v>
@@ -4333,7 +4290,7 @@
     </row>
     <row r="81" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF81">
         <v>5700</v>
@@ -4341,7 +4298,7 @@
     </row>
     <row r="82" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF82">
         <v>20000</v>
@@ -4349,7 +4306,7 @@
     </row>
     <row r="83" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF83">
         <v>5700</v>
@@ -4357,7 +4314,7 @@
     </row>
     <row r="84" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF84">
         <v>10600</v>
@@ -4365,7 +4322,7 @@
     </row>
     <row r="85" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF85">
         <v>5700</v>
@@ -4373,7 +4330,7 @@
     </row>
     <row r="86" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF86">
         <v>5700</v>
@@ -4381,7 +4338,7 @@
     </row>
     <row r="87" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF87">
         <v>5700</v>
@@ -4389,7 +4346,7 @@
     </row>
     <row r="88" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF88">
         <v>5700</v>
@@ -4397,7 +4354,7 @@
     </row>
     <row r="89" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF89">
         <v>5700</v>
@@ -4405,7 +4362,7 @@
     </row>
     <row r="90" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF90">
         <v>5700</v>
@@ -4413,7 +4370,7 @@
     </row>
     <row r="91" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF91">
         <v>5700</v>
@@ -4421,7 +4378,7 @@
     </row>
     <row r="92" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF92">
         <v>10600</v>
@@ -4429,7 +4386,7 @@
     </row>
     <row r="93" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF93">
         <v>5700</v>
@@ -4437,7 +4394,7 @@
     </row>
     <row r="94" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF94">
         <v>5700</v>
@@ -4445,7 +4402,7 @@
     </row>
     <row r="95" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF95">
         <v>5700</v>
@@ -4453,7 +4410,7 @@
     </row>
     <row r="96" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF96">
         <v>5700</v>
@@ -4461,7 +4418,7 @@
     </row>
     <row r="97" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF97">
         <v>5700</v>
@@ -4469,7 +4426,7 @@
     </row>
     <row r="98" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF98">
         <v>10600</v>
@@ -4477,7 +4434,7 @@
     </row>
     <row r="99" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF99">
         <v>20000</v>
@@ -4485,7 +4442,7 @@
     </row>
     <row r="100" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF100">
         <v>10600</v>
@@ -4493,7 +4450,7 @@
     </row>
     <row r="101" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF101">
         <v>5700</v>
@@ -4501,7 +4458,7 @@
     </row>
     <row r="102" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF102">
         <v>5700</v>
@@ -4509,7 +4466,7 @@
     </row>
     <row r="103" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF103">
         <v>5700</v>
@@ -4517,7 +4474,7 @@
     </row>
     <row r="104" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF104">
         <v>20000</v>
@@ -4525,7 +4482,7 @@
     </row>
     <row r="105" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF105">
         <v>5700</v>
@@ -4533,7 +4490,7 @@
     </row>
     <row r="106" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF106">
         <v>5700</v>
@@ -4541,7 +4498,7 @@
     </row>
     <row r="107" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF107">
         <v>10600</v>
@@ -4549,7 +4506,7 @@
     </row>
     <row r="108" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF108">
         <v>10600</v>
@@ -4557,7 +4514,7 @@
     </row>
     <row r="109" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF109">
         <v>5700</v>
@@ -4565,7 +4522,7 @@
     </row>
     <row r="110" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF110">
         <v>5700</v>
@@ -4573,7 +4530,7 @@
     </row>
     <row r="111" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF111">
         <v>5700</v>
@@ -4581,7 +4538,7 @@
     </row>
     <row r="112" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF112">
         <v>5700</v>
@@ -4589,7 +4546,7 @@
     </row>
     <row r="113" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE113" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF113">
         <v>10600</v>
@@ -4597,7 +4554,7 @@
     </row>
     <row r="114" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF114">
         <v>5700</v>
@@ -4605,7 +4562,7 @@
     </row>
     <row r="115" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE115" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF115">
         <v>5700</v>
@@ -4613,7 +4570,7 @@
     </row>
     <row r="116" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF116">
         <v>5700</v>
@@ -4621,7 +4578,7 @@
     </row>
     <row r="117" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF117">
         <v>10600</v>
@@ -4629,7 +4586,7 @@
     </row>
     <row r="118" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE118" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF118">
         <v>20000</v>
@@ -4637,7 +4594,7 @@
     </row>
     <row r="119" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE119" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF119">
         <v>5700</v>
@@ -4645,7 +4602,7 @@
     </row>
     <row r="120" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE120" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF120">
         <v>10600</v>
@@ -4653,7 +4610,7 @@
     </row>
     <row r="121" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE121" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF121">
         <v>5700</v>
@@ -4661,7 +4618,7 @@
     </row>
     <row r="122" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF122">
         <v>10600</v>
@@ -4669,7 +4626,7 @@
     </row>
     <row r="123" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE123" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF123">
         <v>10600</v>
@@ -4677,7 +4634,7 @@
     </row>
     <row r="124" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF124">
         <v>5700</v>
@@ -4685,7 +4642,7 @@
     </row>
     <row r="125" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF125">
         <v>10600</v>
@@ -4693,7 +4650,7 @@
     </row>
     <row r="126" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE126" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF126">
         <v>5700</v>
@@ -4701,7 +4658,7 @@
     </row>
     <row r="127" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE127" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF127">
         <v>5700</v>
@@ -4709,7 +4666,7 @@
     </row>
     <row r="128" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE128" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF128">
         <v>5700</v>
@@ -4717,7 +4674,7 @@
     </row>
     <row r="129" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF129">
         <v>20000</v>
@@ -4725,7 +4682,7 @@
     </row>
     <row r="130" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF130">
         <v>10600</v>
@@ -4733,7 +4690,7 @@
     </row>
     <row r="131" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE131" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF131">
         <v>5700</v>
@@ -4741,7 +4698,7 @@
     </row>
     <row r="132" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE132" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF132">
         <v>5700</v>
@@ -4749,7 +4706,7 @@
     </row>
     <row r="133" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE133" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF133">
         <v>20000</v>
@@ -4757,7 +4714,7 @@
     </row>
     <row r="134" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE134" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF134">
         <v>5700</v>
@@ -4765,7 +4722,7 @@
     </row>
     <row r="135" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE135" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF135">
         <v>5700</v>
@@ -4773,7 +4730,7 @@
     </row>
     <row r="136" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE136" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF136">
         <v>5700</v>
@@ -4781,7 +4738,7 @@
     </row>
     <row r="137" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE137" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF137">
         <v>5700</v>
@@ -4789,7 +4746,7 @@
     </row>
     <row r="138" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE138" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF138">
         <v>5700</v>
@@ -4797,7 +4754,7 @@
     </row>
     <row r="139" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE139" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF139">
         <v>5700</v>
@@ -4805,7 +4762,7 @@
     </row>
     <row r="140" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE140" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF140">
         <v>10600</v>
@@ -4813,7 +4770,7 @@
     </row>
     <row r="141" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE141" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF141">
         <v>5700</v>
@@ -4821,7 +4778,7 @@
     </row>
     <row r="142" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE142" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF142">
         <v>5700</v>
@@ -4829,7 +4786,7 @@
     </row>
     <row r="143" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE143" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF143">
         <v>5700</v>
@@ -4837,7 +4794,7 @@
     </row>
     <row r="144" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE144" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF144">
         <v>5700</v>
@@ -4845,7 +4802,7 @@
     </row>
     <row r="145" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE145" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF145">
         <v>10600</v>
@@ -4853,7 +4810,7 @@
     </row>
     <row r="146" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE146" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF146">
         <v>20000</v>
@@ -4861,7 +4818,7 @@
     </row>
     <row r="147" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE147" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF147">
         <v>10600</v>
@@ -4869,7 +4826,7 @@
     </row>
     <row r="148" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE148" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF148">
         <v>5700</v>
@@ -4877,7 +4834,7 @@
     </row>
     <row r="149" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE149" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF149">
         <v>5700</v>
@@ -4885,7 +4842,7 @@
     </row>
     <row r="150" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF150">
         <v>5700</v>
@@ -4893,7 +4850,7 @@
     </row>
     <row r="151" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE151" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF151">
         <v>5700</v>
@@ -4901,7 +4858,7 @@
     </row>
     <row r="152" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE152" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF152">
         <v>10600</v>
@@ -4909,7 +4866,7 @@
     </row>
     <row r="153" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF153">
         <v>5700</v>
@@ -4917,7 +4874,7 @@
     </row>
     <row r="154" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE154" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF154">
         <v>5700</v>
@@ -4925,7 +4882,7 @@
     </row>
     <row r="155" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE155" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF155">
         <v>5700</v>
@@ -4933,7 +4890,7 @@
     </row>
     <row r="156" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE156" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF156">
         <v>10600</v>
@@ -4941,7 +4898,7 @@
     </row>
     <row r="157" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE157" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF157">
         <v>5700</v>
@@ -4949,7 +4906,7 @@
     </row>
     <row r="158" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF158">
         <v>20000</v>
@@ -4957,7 +4914,7 @@
     </row>
     <row r="159" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF159">
         <v>5700</v>
@@ -4965,7 +4922,7 @@
     </row>
     <row r="160" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE160" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF160">
         <v>10600</v>
@@ -4973,7 +4930,7 @@
     </row>
     <row r="161" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE161" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF161">
         <v>5700</v>
@@ -4981,7 +4938,7 @@
     </row>
     <row r="162" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE162" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF162">
         <v>20000</v>
@@ -4989,7 +4946,7 @@
     </row>
     <row r="163" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE163" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF163">
         <v>10600</v>
@@ -4997,7 +4954,7 @@
     </row>
     <row r="164" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE164" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF164">
         <v>5700</v>
@@ -5005,7 +4962,7 @@
     </row>
     <row r="165" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE165" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF165">
         <v>5700</v>
@@ -5013,7 +4970,7 @@
     </row>
     <row r="166" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF166">
         <v>10600</v>
@@ -5021,7 +4978,7 @@
     </row>
     <row r="167" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE167" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF167">
         <v>10600</v>
@@ -5029,7 +4986,7 @@
     </row>
     <row r="168" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE168" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF168">
         <v>20000</v>
@@ -5037,7 +4994,7 @@
     </row>
     <row r="169" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE169" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF169">
         <v>5700</v>
@@ -5045,7 +5002,7 @@
     </row>
     <row r="170" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF170">
         <v>5700</v>
@@ -5053,7 +5010,7 @@
     </row>
     <row r="171" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE171" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF171">
         <v>5700</v>
@@ -5061,7 +5018,7 @@
     </row>
     <row r="172" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE172" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF172">
         <v>5700</v>
@@ -5069,7 +5026,7 @@
     </row>
     <row r="173" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE173" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF173">
         <v>5700</v>
@@ -5077,7 +5034,7 @@
     </row>
     <row r="174" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE174" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF174">
         <v>5700</v>
@@ -5085,7 +5042,7 @@
     </row>
     <row r="175" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE175" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF175">
         <v>5700</v>
@@ -5093,7 +5050,7 @@
     </row>
     <row r="176" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE176" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF176">
         <v>5700</v>
@@ -5101,7 +5058,7 @@
     </row>
     <row r="177" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE177" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF177">
         <v>20000</v>
@@ -5109,7 +5066,7 @@
     </row>
     <row r="178" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE178" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF178">
         <v>20000</v>
@@ -5117,7 +5074,7 @@
     </row>
     <row r="179" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF179">
         <v>20000</v>
@@ -5125,7 +5082,7 @@
     </row>
     <row r="180" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE180" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF180">
         <v>5700</v>
@@ -5133,7 +5090,7 @@
     </row>
     <row r="181" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF181">
         <v>5700</v>
@@ -5141,7 +5098,7 @@
     </row>
     <row r="182" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE182" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF182">
         <v>10600</v>
@@ -5149,7 +5106,7 @@
     </row>
     <row r="183" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE183" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF183">
         <v>20000</v>
@@ -5157,7 +5114,7 @@
     </row>
     <row r="184" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE184" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF184">
         <v>10600</v>
@@ -5165,7 +5122,7 @@
     </row>
     <row r="185" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE185" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF185">
         <v>5700</v>
@@ -5173,7 +5130,7 @@
     </row>
     <row r="186" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE186" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF186">
         <v>5700</v>
@@ -5181,7 +5138,7 @@
     </row>
     <row r="187" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE187" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF187">
         <v>5700</v>
@@ -5189,7 +5146,7 @@
     </row>
     <row r="188" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE188" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF188">
         <v>10600</v>
@@ -5197,7 +5154,7 @@
     </row>
     <row r="189" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE189" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF189">
         <v>5700</v>
@@ -5205,7 +5162,7 @@
     </row>
     <row r="190" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE190" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF190">
         <v>10600</v>
@@ -5213,7 +5170,7 @@
     </row>
     <row r="191" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE191" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF191">
         <v>10600</v>
@@ -5221,7 +5178,7 @@
     </row>
     <row r="192" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE192" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF192">
         <v>5700</v>
@@ -5229,7 +5186,7 @@
     </row>
     <row r="193" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE193" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF193">
         <v>5700</v>
@@ -5237,7 +5194,7 @@
     </row>
     <row r="194" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE194" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF194">
         <v>5700</v>
@@ -5245,7 +5202,7 @@
     </row>
     <row r="195" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE195" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF195">
         <v>5700</v>
@@ -5253,7 +5210,7 @@
     </row>
     <row r="196" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE196" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF196">
         <v>5700</v>
@@ -5261,7 +5218,7 @@
     </row>
     <row r="197" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE197" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF197">
         <v>5700</v>
@@ -5269,7 +5226,7 @@
     </row>
     <row r="198" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE198" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF198">
         <v>10600</v>
@@ -5277,7 +5234,7 @@
     </row>
     <row r="199" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE199" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF199">
         <v>10600</v>
@@ -5285,7 +5242,7 @@
     </row>
     <row r="200" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE200" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF200">
         <v>10600</v>
@@ -5293,7 +5250,7 @@
     </row>
     <row r="201" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE201" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF201">
         <v>10600</v>
@@ -5301,7 +5258,7 @@
     </row>
     <row r="202" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE202" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF202">
         <v>20000</v>
@@ -5309,7 +5266,7 @@
     </row>
     <row r="203" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE203" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF203">
         <v>10600</v>
@@ -5317,7 +5274,7 @@
     </row>
     <row r="204" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE204" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF204">
         <v>10600</v>
@@ -5325,7 +5282,7 @@
     </row>
     <row r="205" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE205" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF205">
         <v>5700</v>
@@ -5333,7 +5290,7 @@
     </row>
     <row r="206" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE206" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF206">
         <v>20000</v>
@@ -5341,7 +5298,7 @@
     </row>
     <row r="207" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE207" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF207">
         <v>5700</v>
@@ -5349,7 +5306,7 @@
     </row>
     <row r="208" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE208" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF208">
         <v>10600</v>
@@ -5357,7 +5314,7 @@
     </row>
     <row r="209" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE209" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF209">
         <v>20000</v>
@@ -5365,7 +5322,7 @@
     </row>
     <row r="210" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE210" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF210">
         <v>10600</v>
@@ -5373,7 +5330,7 @@
     </row>
     <row r="211" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE211" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF211">
         <v>5700</v>
@@ -5381,7 +5338,7 @@
     </row>
     <row r="212" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE212" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF212">
         <v>5700</v>
@@ -5389,7 +5346,7 @@
     </row>
     <row r="213" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE213" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF213">
         <v>20000</v>
@@ -5397,7 +5354,7 @@
     </row>
     <row r="214" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE214" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF214">
         <v>5700</v>
@@ -5405,7 +5362,7 @@
     </row>
     <row r="215" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE215" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF215">
         <v>20000</v>
@@ -5413,7 +5370,7 @@
     </row>
     <row r="216" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE216" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF216">
         <v>5700</v>
@@ -5421,7 +5378,7 @@
     </row>
     <row r="217" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE217" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF217">
         <v>10600</v>
@@ -5429,7 +5386,7 @@
     </row>
     <row r="218" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF218">
         <v>20000</v>
@@ -5437,7 +5394,7 @@
     </row>
     <row r="219" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE219" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF219">
         <v>5700</v>
@@ -5445,7 +5402,7 @@
     </row>
     <row r="220" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE220" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF220">
         <v>5700</v>
@@ -5453,7 +5410,7 @@
     </row>
     <row r="221" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE221" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF221">
         <v>10600</v>
@@ -5461,7 +5418,7 @@
     </row>
     <row r="222" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE222" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF222">
         <v>5700</v>
@@ -5469,7 +5426,7 @@
     </row>
     <row r="223" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE223" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF223">
         <v>10600</v>
@@ -5477,7 +5434,7 @@
     </row>
     <row r="224" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE224" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF224">
         <v>10600</v>
@@ -5485,7 +5442,7 @@
     </row>
     <row r="225" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE225" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF225">
         <v>5700</v>
@@ -5493,7 +5450,7 @@
     </row>
     <row r="226" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE226" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF226">
         <v>5700</v>
@@ -5501,7 +5458,7 @@
     </row>
     <row r="227" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE227" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF227">
         <v>20000</v>
@@ -5509,7 +5466,7 @@
     </row>
     <row r="228" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE228" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF228">
         <v>10600</v>
@@ -5517,7 +5474,7 @@
     </row>
     <row r="229" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE229" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF229">
         <v>20000</v>
@@ -5525,7 +5482,7 @@
     </row>
     <row r="230" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE230" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF230">
         <v>20000</v>
@@ -5533,7 +5490,7 @@
     </row>
     <row r="231" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE231" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF231">
         <v>5700</v>
@@ -5541,7 +5498,7 @@
     </row>
     <row r="232" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE232" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF232">
         <v>5700</v>
@@ -5549,7 +5506,7 @@
     </row>
     <row r="233" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE233" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF233">
         <v>5700</v>
@@ -5557,7 +5514,7 @@
     </row>
     <row r="234" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE234" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF234">
         <v>10600</v>
@@ -5565,7 +5522,7 @@
     </row>
     <row r="235" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE235" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF235">
         <v>5700</v>
@@ -5573,7 +5530,7 @@
     </row>
     <row r="236" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE236" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF236">
         <v>10600</v>
@@ -5581,7 +5538,7 @@
     </row>
     <row r="237" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE237" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF237">
         <v>10600</v>
@@ -5589,7 +5546,7 @@
     </row>
     <row r="238" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE238" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF238">
         <v>20000</v>
@@ -5597,7 +5554,7 @@
     </row>
     <row r="239" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE239" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF239">
         <v>20000</v>
@@ -5605,7 +5562,7 @@
     </row>
     <row r="240" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE240" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF240">
         <v>5700</v>
@@ -5613,7 +5570,7 @@
     </row>
     <row r="241" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE241" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF241">
         <v>5700</v>
@@ -5621,7 +5578,7 @@
     </row>
     <row r="242" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE242" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF242">
         <v>10600</v>
@@ -5629,7 +5586,7 @@
     </row>
     <row r="243" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE243" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF243">
         <v>20000</v>
@@ -5637,7 +5594,7 @@
     </row>
     <row r="244" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE244" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF244">
         <v>5700</v>
@@ -5645,7 +5602,7 @@
     </row>
     <row r="245" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE245" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF245">
         <v>5700</v>
@@ -5653,7 +5610,7 @@
     </row>
     <row r="246" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE246" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF246">
         <v>20000</v>
@@ -5661,7 +5618,7 @@
     </row>
     <row r="247" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE247" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF247">
         <v>10600</v>
@@ -5669,7 +5626,7 @@
     </row>
     <row r="248" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE248" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF248">
         <v>5700</v>
@@ -5677,7 +5634,7 @@
     </row>
     <row r="249" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE249" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF249">
         <v>5700</v>
@@ -5685,7 +5642,7 @@
     </row>
     <row r="250" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE250" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF250">
         <v>5700</v>
@@ -5693,7 +5650,7 @@
     </row>
     <row r="251" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE251" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF251">
         <v>5700</v>
@@ -5701,7 +5658,7 @@
     </row>
     <row r="252" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE252" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF252">
         <v>5700</v>
@@ -5709,7 +5666,7 @@
     </row>
     <row r="253" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE253" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF253">
         <v>10600</v>
@@ -5717,7 +5674,7 @@
     </row>
     <row r="254" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE254" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF254">
         <v>5700</v>
@@ -5725,7 +5682,7 @@
     </row>
     <row r="255" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE255" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF255">
         <v>5700</v>
@@ -5733,7 +5690,7 @@
     </row>
     <row r="256" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE256" t="s">
-        <v>33</v>
+        <v>314</v>
       </c>
       <c r="AF256">
         <v>5700</v>
@@ -6242,10 +6199,10 @@
     </row>
     <row r="4" spans="4:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8">
-        <f>SUM(D5:D25)</f>
+        <f>SUM(D5:D24)</f>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E25)</f>
+        <f>SUM(E5:E24)</f>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
@@ -6286,7 +6243,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="10">
         <v>120</v>
@@ -6340,7 +6297,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="10">
         <v>120</v>
@@ -6394,7 +6351,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="10">
         <v>100</v>
@@ -6442,7 +6399,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="13">
         <v>100</v>
@@ -6490,7 +6447,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="13">
         <v>100</v>
@@ -6538,7 +6495,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="13">
         <v>90</v>
@@ -6586,7 +6543,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="13">
         <v>80</v>
@@ -7253,49 +7210,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>7</v>
-      </c>
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE25" t="s">
         <v>401</v>
-      </c>
-      <c r="C25" s="10">
-        <v>10</v>
-      </c>
-      <c r="D25" s="10">
-        <f>COUNTA(F25:AD25)</f>
-      </c>
-      <c r="E25" s="10">
-        <f>C25*D25</f>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" t="s">
-        <v>402</v>
       </c>
       <c r="AF25">
         <v>900</v>
@@ -7303,7 +7220,7 @@
     </row>
     <row r="26" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF26">
         <v>900</v>
@@ -7311,7 +7228,7 @@
     </row>
     <row r="27" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF27">
         <v>900</v>
@@ -7319,7 +7236,7 @@
     </row>
     <row r="28" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF28">
         <v>1350</v>
@@ -7327,7 +7244,7 @@
     </row>
     <row r="29" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF29">
         <v>900</v>
@@ -7335,7 +7252,7 @@
     </row>
     <row r="30" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF30">
         <v>900</v>
@@ -7343,7 +7260,7 @@
     </row>
     <row r="31" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF31">
         <v>900</v>
@@ -7351,7 +7268,7 @@
     </row>
     <row r="32" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF32">
         <v>900</v>
@@ -7359,7 +7276,7 @@
     </row>
     <row r="33" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF33">
         <v>900</v>
@@ -7367,7 +7284,7 @@
     </row>
     <row r="34" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF34">
         <v>900</v>
@@ -7375,7 +7292,7 @@
     </row>
     <row r="35" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF35">
         <v>900</v>
@@ -7383,7 +7300,7 @@
     </row>
     <row r="36" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF36">
         <v>900</v>
@@ -7391,7 +7308,7 @@
     </row>
     <row r="37" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF37">
         <v>900</v>
@@ -7399,7 +7316,7 @@
     </row>
     <row r="38" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF38">
         <v>900</v>
@@ -7407,7 +7324,7 @@
     </row>
     <row r="39" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF39">
         <v>900</v>
@@ -7415,7 +7332,7 @@
     </row>
     <row r="40" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF40">
         <v>1350</v>
@@ -7423,7 +7340,7 @@
     </row>
     <row r="41" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF41">
         <v>900</v>
@@ -7431,7 +7348,7 @@
     </row>
     <row r="42" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE42" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF42">
         <v>900</v>
@@ -7439,7 +7356,7 @@
     </row>
     <row r="43" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF43">
         <v>900</v>
@@ -7447,7 +7364,7 @@
     </row>
     <row r="44" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF44">
         <v>900</v>
@@ -7455,7 +7372,7 @@
     </row>
     <row r="45" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF45">
         <v>900</v>
@@ -7463,7 +7380,7 @@
     </row>
     <row r="46" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE46" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF46">
         <v>1350</v>
@@ -7471,7 +7388,7 @@
     </row>
     <row r="47" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE47" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF47">
         <v>900</v>
@@ -7479,7 +7396,7 @@
     </row>
     <row r="48" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF48">
         <v>900</v>
@@ -7487,7 +7404,7 @@
     </row>
     <row r="49" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE49" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF49">
         <v>900</v>
@@ -7495,7 +7412,7 @@
     </row>
     <row r="50" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE50" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF50">
         <v>900</v>
@@ -7503,7 +7420,7 @@
     </row>
     <row r="51" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE51" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF51">
         <v>2900</v>
@@ -7511,7 +7428,7 @@
     </row>
     <row r="52" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE52" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF52">
         <v>900</v>
@@ -7519,7 +7436,7 @@
     </row>
     <row r="53" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF53">
         <v>900</v>
@@ -7527,7 +7444,7 @@
     </row>
     <row r="54" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF54">
         <v>900</v>
@@ -7535,7 +7452,7 @@
     </row>
     <row r="55" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF55">
         <v>900</v>
@@ -7543,7 +7460,7 @@
     </row>
     <row r="56" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF56">
         <v>900</v>
@@ -7551,7 +7468,7 @@
     </row>
     <row r="57" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF57">
         <v>900</v>
@@ -7559,7 +7476,7 @@
     </row>
     <row r="58" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF58">
         <v>1350</v>
@@ -7567,7 +7484,7 @@
     </row>
     <row r="59" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF59">
         <v>1350</v>
@@ -7575,7 +7492,7 @@
     </row>
     <row r="60" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE60" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF60">
         <v>900</v>
@@ -7583,7 +7500,7 @@
     </row>
     <row r="61" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE61" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF61">
         <v>900</v>
@@ -7591,7 +7508,7 @@
     </row>
     <row r="62" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF62">
         <v>900</v>
@@ -7599,7 +7516,7 @@
     </row>
     <row r="63" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE63" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF63">
         <v>900</v>
@@ -7607,7 +7524,7 @@
     </row>
     <row r="64" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF64">
         <v>900</v>
@@ -7615,7 +7532,7 @@
     </row>
     <row r="65" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE65" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF65">
         <v>900</v>
@@ -7623,7 +7540,7 @@
     </row>
     <row r="66" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF66">
         <v>900</v>
@@ -7631,7 +7548,7 @@
     </row>
     <row r="67" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE67" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF67">
         <v>900</v>
@@ -7639,7 +7556,7 @@
     </row>
     <row r="68" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE68" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF68">
         <v>900</v>
@@ -7647,7 +7564,7 @@
     </row>
     <row r="69" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF69">
         <v>900</v>
@@ -7655,7 +7572,7 @@
     </row>
     <row r="70" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE70" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF70">
         <v>900</v>
@@ -7663,7 +7580,7 @@
     </row>
     <row r="71" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE71" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF71">
         <v>900</v>
@@ -7671,7 +7588,7 @@
     </row>
     <row r="72" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF72">
         <v>900</v>
@@ -7679,7 +7596,7 @@
     </row>
     <row r="73" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF73">
         <v>900</v>

--- a/src/lib/gen-generic/port-battle.xlsx
+++ b/src/lib/gen-generic/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="450">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -113,222 +113,225 @@
     <t>Arecibo</t>
   </si>
   <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>Atchafalaya</t>
+  </si>
+  <si>
     <t>St. Pavel</t>
   </si>
   <si>
-    <t>Atchafalaya</t>
+    <t>Atwoods</t>
   </si>
   <si>
     <t>Admiraal de Ruyter</t>
   </si>
   <si>
-    <t>Atwoods</t>
+    <t>Aves</t>
   </si>
   <si>
     <t>Implacable</t>
   </si>
   <si>
-    <t>Aves</t>
+    <t>Ayamonte</t>
   </si>
   <si>
     <t>Redoutable (i)</t>
   </si>
   <si>
-    <t>Ayamonte</t>
+    <t>Ays</t>
   </si>
   <si>
     <t>Bellona</t>
   </si>
   <si>
-    <t>Ays</t>
+    <t>Azua</t>
   </si>
   <si>
     <t>Wasa</t>
   </si>
   <si>
-    <t>Azua</t>
+    <t>Bahía Escocesa</t>
   </si>
   <si>
     <t>3rd Rate</t>
   </si>
   <si>
-    <t>Bahía Escocesa</t>
+    <t>Bahía Honda</t>
   </si>
   <si>
     <t>Constitution</t>
   </si>
   <si>
-    <t>Bahía Honda</t>
+    <t>Baja</t>
   </si>
   <si>
     <t>USS United States</t>
   </si>
   <si>
-    <t>Baja</t>
+    <t>Baní</t>
   </si>
   <si>
     <t>Agamemnon</t>
   </si>
   <si>
-    <t>Baní</t>
+    <t>Baracoa</t>
   </si>
   <si>
     <t>Rättvisan (i)</t>
   </si>
   <si>
-    <t>Baracoa</t>
+    <t>Barahona</t>
   </si>
   <si>
     <t>Ingermanland</t>
   </si>
   <si>
-    <t>Barahona</t>
+    <t>Barataria</t>
   </si>
   <si>
     <t>Wapen von Hamburg</t>
   </si>
   <si>
-    <t>Barataria</t>
+    <t>Barranquilla</t>
   </si>
   <si>
     <t>Indefatigable</t>
   </si>
   <si>
-    <t>Barranquilla</t>
+    <t>Basse-Terre</t>
   </si>
   <si>
     <t>Leopard (i)</t>
   </si>
   <si>
-    <t>Basse-Terre</t>
+    <t>Basseterre Town</t>
   </si>
   <si>
     <t>Endymion</t>
   </si>
   <si>
-    <t>Basseterre Town</t>
+    <t>Batabanó</t>
   </si>
   <si>
     <t>Trincomalee</t>
   </si>
   <si>
-    <t>Batabanó</t>
+    <t>Beaufort</t>
   </si>
   <si>
     <t>Diana</t>
   </si>
   <si>
-    <t>Beaufort</t>
+    <t>Belize</t>
   </si>
   <si>
     <t>Essex</t>
   </si>
   <si>
-    <t>Belize</t>
+    <t>Bensalem</t>
   </si>
   <si>
     <t>Santa Cecilia</t>
   </si>
   <si>
-    <t>Bensalem</t>
+    <t>Bernal</t>
   </si>
   <si>
     <t>L’Hermione (i)</t>
   </si>
   <si>
-    <t>Bernal</t>
+    <t>Biloxi</t>
   </si>
   <si>
     <t>La Belle-Poule</t>
   </si>
   <si>
-    <t>Biloxi</t>
+    <t>Black River</t>
   </si>
   <si>
     <t>Pirate Frigate</t>
   </si>
   <si>
-    <t>Black River</t>
+    <t>Bluefields</t>
   </si>
   <si>
     <t>Frigate</t>
   </si>
   <si>
-    <t>Bluefields</t>
+    <t>Bonacca</t>
   </si>
   <si>
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
-    <t>Bonacca</t>
+    <t>Brangman’s Bluff</t>
   </si>
   <si>
     <t>Indiaman</t>
   </si>
   <si>
-    <t>Brangman’s Bluff</t>
+    <t>Bridgetown</t>
   </si>
   <si>
     <t>La Renommée</t>
   </si>
   <si>
-    <t>Bridgetown</t>
+    <t>Brunswick</t>
   </si>
   <si>
     <t>Le Gros Ventre</t>
   </si>
   <si>
-    <t>Brunswick</t>
+    <t>Buena Vista</t>
   </si>
   <si>
     <t>Surprise</t>
   </si>
   <si>
-    <t>Buena Vista</t>
+    <t>Cabo Cañaveral</t>
   </si>
   <si>
     <t>Hercules (i)</t>
   </si>
   <si>
-    <t>Cabo Cañaveral</t>
+    <t>Cabo de la Vela</t>
   </si>
   <si>
     <t>Cerberus</t>
   </si>
   <si>
-    <t>Cabo de la Vela</t>
+    <t>Cabo Rojo</t>
   </si>
   <si>
     <t>Pandora (i)</t>
   </si>
   <si>
-    <t>Cabo Rojo</t>
+    <t>Calcasieu</t>
   </si>
   <si>
     <t>Le Requin (i)</t>
   </si>
   <si>
-    <t>Calcasieu</t>
+    <t>Calobelo</t>
   </si>
   <si>
     <t>Rattlesnake Heavy</t>
   </si>
   <si>
-    <t>Calobelo</t>
+    <t>Camp du Roy</t>
   </si>
   <si>
     <t>Niagara</t>
   </si>
   <si>
-    <t>Camp du Roy</t>
+    <t>Campeche</t>
   </si>
   <si>
     <t>Mortar Brig</t>
   </si>
   <si>
-    <t>Campeche</t>
-  </si>
-  <si>
     <t>Canalete</t>
   </si>
   <si>
@@ -954,9 +957,6 @@
   </si>
   <si>
     <t>Sandy Hill</t>
-  </si>
-  <si>
-    <t>Santa Ana</t>
   </si>
   <si>
     <t>Santa Cruz</t>
@@ -1949,10 +1949,10 @@
     </row>
     <row r="4" spans="4:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8">
-        <f>SUM(D5:D46)</f>
+        <f>SUM(D5:D47)</f>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E46)</f>
+        <f>SUM(E5:E47)</f>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
@@ -2296,7 +2296,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="13">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="D11" s="13">
         <f>COUNTA(F11:AD11)</f>
@@ -2337,46 +2337,46 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>3</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="10">
-        <v>550</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C12" s="13">
+        <v>500</v>
+      </c>
+      <c r="D12" s="13">
         <f>COUNTA(F12:AD12)</f>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="13">
         <f>C12*D12</f>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
       <c r="AE12" t="s">
         <v>36</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="10">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="D15" s="10">
         <f>COUNTA(F15:AD15)</f>
@@ -2536,7 +2536,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="10">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="D16" s="10">
         <f>COUNTA(F16:AD16)</f>
@@ -2584,7 +2584,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="10">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D17" s="10">
         <f>COUNTA(F17:AD17)</f>
@@ -2632,7 +2632,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="10">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="D18" s="10">
         <f>COUNTA(F18:AD18)</f>
@@ -2721,46 +2721,46 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>4</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="10">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="13">
-        <v>340</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="C20" s="10">
+        <v>360</v>
+      </c>
+      <c r="D20" s="10">
         <f>COUNTA(F20:AD20)</f>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <f>C20*D20</f>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
       <c r="AE20" t="s">
         <v>52</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="D22" s="13">
         <f>COUNTA(F22:AD22)</f>
@@ -2920,7 +2920,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="13">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D24" s="13">
         <f>COUNTA(F24:AD24)</f>
@@ -3009,46 +3009,46 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>5</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="13">
+        <v>4</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="10">
-        <v>270</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="C26" s="13">
+        <v>290</v>
+      </c>
+      <c r="D26" s="13">
         <f>COUNTA(F26:AD26)</f>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="13">
         <f>C26*D26</f>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
       <c r="AE26" t="s">
         <v>64</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="10">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D27" s="10">
         <f>COUNTA(F27:AD27)</f>
@@ -3112,7 +3112,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="10">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D28" s="10">
         <f>COUNTA(F28:AD28)</f>
@@ -3160,7 +3160,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="10">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D29" s="10">
         <f>COUNTA(F29:AD29)</f>
@@ -3256,7 +3256,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="10">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D31" s="10">
         <f>COUNTA(F31:AD31)</f>
@@ -3400,7 +3400,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="10">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D34" s="10">
         <f>COUNTA(F34:AD34)</f>
@@ -3448,7 +3448,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="10">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D35" s="10">
         <f>COUNTA(F35:AD35)</f>
@@ -3496,7 +3496,7 @@
         <v>83</v>
       </c>
       <c r="C36" s="10">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D36" s="10">
         <f>COUNTA(F36:AD36)</f>
@@ -3544,7 +3544,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="10">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D37" s="10">
         <f>COUNTA(F37:AD37)</f>
@@ -3688,7 +3688,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="10">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D40" s="10">
         <f>COUNTA(F40:AD40)</f>
@@ -3736,7 +3736,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D41" s="10">
         <f>COUNTA(F41:AD41)</f>
@@ -3825,46 +3825,46 @@
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>6</v>
-      </c>
-      <c r="B43" s="14" t="s">
+      <c r="A43" s="10">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="10">
         <v>100</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="10">
         <f>COUNTA(F43:AD43)</f>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="10">
         <f>C43*D43</f>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
       <c r="AE43" t="s">
         <v>98</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>101</v>
       </c>
       <c r="C45" s="13">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D45" s="13">
         <f>COUNTA(F45:AD45)</f>
@@ -3976,7 +3976,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="13">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D46" s="13">
         <f>COUNTA(F46:AD46)</f>
@@ -4016,9 +4016,49 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>6</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="13">
+        <v>80</v>
+      </c>
+      <c r="D47" s="13">
+        <f>COUNTA(F47:AD47)</f>
+      </c>
+      <c r="E47" s="13">
+        <f>C47*D47</f>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
       <c r="AE47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF47">
         <v>5700</v>
@@ -4026,7 +4066,7 @@
     </row>
     <row r="48" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF48">
         <v>5700</v>
@@ -4034,7 +4074,7 @@
     </row>
     <row r="49" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF49">
         <v>5700</v>
@@ -4042,7 +4082,7 @@
     </row>
     <row r="50" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF50">
         <v>5700</v>
@@ -4050,7 +4090,7 @@
     </row>
     <row r="51" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF51">
         <v>20000</v>
@@ -4058,7 +4098,7 @@
     </row>
     <row r="52" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF52">
         <v>20000</v>
@@ -4066,7 +4106,7 @@
     </row>
     <row r="53" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF53">
         <v>10600</v>
@@ -4074,7 +4114,7 @@
     </row>
     <row r="54" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF54">
         <v>10600</v>
@@ -4082,7 +4122,7 @@
     </row>
     <row r="55" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF55">
         <v>5700</v>
@@ -4090,7 +4130,7 @@
     </row>
     <row r="56" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF56">
         <v>20000</v>
@@ -4098,7 +4138,7 @@
     </row>
     <row r="57" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF57">
         <v>5700</v>
@@ -4106,7 +4146,7 @@
     </row>
     <row r="58" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF58">
         <v>5700</v>
@@ -4114,7 +4154,7 @@
     </row>
     <row r="59" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF59">
         <v>10600</v>
@@ -4122,7 +4162,7 @@
     </row>
     <row r="60" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF60">
         <v>5700</v>
@@ -4130,7 +4170,7 @@
     </row>
     <row r="61" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF61">
         <v>5700</v>
@@ -4138,7 +4178,7 @@
     </row>
     <row r="62" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF62">
         <v>5700</v>
@@ -4146,7 +4186,7 @@
     </row>
     <row r="63" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF63">
         <v>5700</v>
@@ -4154,7 +4194,7 @@
     </row>
     <row r="64" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF64">
         <v>5700</v>
@@ -4162,7 +4202,7 @@
     </row>
     <row r="65" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF65">
         <v>20000</v>
@@ -4170,7 +4210,7 @@
     </row>
     <row r="66" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF66">
         <v>5700</v>
@@ -4178,7 +4218,7 @@
     </row>
     <row r="67" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF67">
         <v>10600</v>
@@ -4186,7 +4226,7 @@
     </row>
     <row r="68" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE68" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF68">
         <v>20000</v>
@@ -4194,7 +4234,7 @@
     </row>
     <row r="69" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF69">
         <v>20000</v>
@@ -4202,7 +4242,7 @@
     </row>
     <row r="70" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF70">
         <v>10600</v>
@@ -4210,7 +4250,7 @@
     </row>
     <row r="71" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF71">
         <v>5700</v>
@@ -4218,7 +4258,7 @@
     </row>
     <row r="72" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF72">
         <v>5700</v>
@@ -4226,7 +4266,7 @@
     </row>
     <row r="73" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF73">
         <v>5700</v>
@@ -4234,7 +4274,7 @@
     </row>
     <row r="74" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF74">
         <v>5700</v>
@@ -4242,7 +4282,7 @@
     </row>
     <row r="75" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF75">
         <v>5700</v>
@@ -4250,7 +4290,7 @@
     </row>
     <row r="76" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF76">
         <v>5700</v>
@@ -4258,7 +4298,7 @@
     </row>
     <row r="77" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF77">
         <v>5700</v>
@@ -4266,7 +4306,7 @@
     </row>
     <row r="78" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF78">
         <v>5700</v>
@@ -4274,7 +4314,7 @@
     </row>
     <row r="79" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF79">
         <v>20000</v>
@@ -4282,7 +4322,7 @@
     </row>
     <row r="80" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF80">
         <v>5700</v>
@@ -4290,7 +4330,7 @@
     </row>
     <row r="81" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF81">
         <v>5700</v>
@@ -4298,7 +4338,7 @@
     </row>
     <row r="82" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF82">
         <v>20000</v>
@@ -4306,7 +4346,7 @@
     </row>
     <row r="83" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF83">
         <v>5700</v>
@@ -4314,7 +4354,7 @@
     </row>
     <row r="84" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE84" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF84">
         <v>10600</v>
@@ -4322,7 +4362,7 @@
     </row>
     <row r="85" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE85" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF85">
         <v>5700</v>
@@ -4330,7 +4370,7 @@
     </row>
     <row r="86" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE86" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF86">
         <v>5700</v>
@@ -4338,7 +4378,7 @@
     </row>
     <row r="87" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF87">
         <v>5700</v>
@@ -4346,7 +4386,7 @@
     </row>
     <row r="88" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE88" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF88">
         <v>5700</v>
@@ -4354,7 +4394,7 @@
     </row>
     <row r="89" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE89" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF89">
         <v>5700</v>
@@ -4362,7 +4402,7 @@
     </row>
     <row r="90" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF90">
         <v>5700</v>
@@ -4370,7 +4410,7 @@
     </row>
     <row r="91" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE91" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF91">
         <v>5700</v>
@@ -4378,7 +4418,7 @@
     </row>
     <row r="92" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE92" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF92">
         <v>10600</v>
@@ -4386,7 +4426,7 @@
     </row>
     <row r="93" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE93" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF93">
         <v>5700</v>
@@ -4394,7 +4434,7 @@
     </row>
     <row r="94" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE94" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF94">
         <v>5700</v>
@@ -4402,7 +4442,7 @@
     </row>
     <row r="95" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE95" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF95">
         <v>5700</v>
@@ -4410,7 +4450,7 @@
     </row>
     <row r="96" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE96" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF96">
         <v>5700</v>
@@ -4418,7 +4458,7 @@
     </row>
     <row r="97" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE97" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF97">
         <v>5700</v>
@@ -4426,7 +4466,7 @@
     </row>
     <row r="98" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE98" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF98">
         <v>10600</v>
@@ -4434,7 +4474,7 @@
     </row>
     <row r="99" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE99" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF99">
         <v>20000</v>
@@ -4442,7 +4482,7 @@
     </row>
     <row r="100" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE100" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF100">
         <v>10600</v>
@@ -4450,7 +4490,7 @@
     </row>
     <row r="101" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE101" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF101">
         <v>5700</v>
@@ -4458,7 +4498,7 @@
     </row>
     <row r="102" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE102" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF102">
         <v>5700</v>
@@ -4466,7 +4506,7 @@
     </row>
     <row r="103" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE103" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF103">
         <v>5700</v>
@@ -4474,7 +4514,7 @@
     </row>
     <row r="104" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE104" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF104">
         <v>20000</v>
@@ -4482,7 +4522,7 @@
     </row>
     <row r="105" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE105" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF105">
         <v>5700</v>
@@ -4490,7 +4530,7 @@
     </row>
     <row r="106" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE106" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF106">
         <v>5700</v>
@@ -4498,7 +4538,7 @@
     </row>
     <row r="107" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE107" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF107">
         <v>10600</v>
@@ -4506,7 +4546,7 @@
     </row>
     <row r="108" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE108" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF108">
         <v>10600</v>
@@ -4514,7 +4554,7 @@
     </row>
     <row r="109" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE109" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF109">
         <v>5700</v>
@@ -4522,7 +4562,7 @@
     </row>
     <row r="110" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE110" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF110">
         <v>5700</v>
@@ -4530,7 +4570,7 @@
     </row>
     <row r="111" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE111" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF111">
         <v>5700</v>
@@ -4538,7 +4578,7 @@
     </row>
     <row r="112" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE112" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF112">
         <v>5700</v>
@@ -4546,7 +4586,7 @@
     </row>
     <row r="113" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE113" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF113">
         <v>10600</v>
@@ -4554,7 +4594,7 @@
     </row>
     <row r="114" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE114" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF114">
         <v>5700</v>
@@ -4562,7 +4602,7 @@
     </row>
     <row r="115" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE115" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF115">
         <v>5700</v>
@@ -4570,7 +4610,7 @@
     </row>
     <row r="116" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE116" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF116">
         <v>5700</v>
@@ -4578,7 +4618,7 @@
     </row>
     <row r="117" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE117" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF117">
         <v>10600</v>
@@ -4586,7 +4626,7 @@
     </row>
     <row r="118" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE118" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF118">
         <v>20000</v>
@@ -4594,7 +4634,7 @@
     </row>
     <row r="119" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE119" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF119">
         <v>5700</v>
@@ -4602,7 +4642,7 @@
     </row>
     <row r="120" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE120" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF120">
         <v>10600</v>
@@ -4610,7 +4650,7 @@
     </row>
     <row r="121" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE121" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF121">
         <v>5700</v>
@@ -4618,7 +4658,7 @@
     </row>
     <row r="122" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE122" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF122">
         <v>10600</v>
@@ -4626,7 +4666,7 @@
     </row>
     <row r="123" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE123" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF123">
         <v>10600</v>
@@ -4634,7 +4674,7 @@
     </row>
     <row r="124" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE124" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF124">
         <v>5700</v>
@@ -4642,7 +4682,7 @@
     </row>
     <row r="125" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE125" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF125">
         <v>10600</v>
@@ -4650,7 +4690,7 @@
     </row>
     <row r="126" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE126" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF126">
         <v>5700</v>
@@ -4658,7 +4698,7 @@
     </row>
     <row r="127" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE127" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF127">
         <v>5700</v>
@@ -4666,7 +4706,7 @@
     </row>
     <row r="128" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE128" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF128">
         <v>5700</v>
@@ -4674,7 +4714,7 @@
     </row>
     <row r="129" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE129" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF129">
         <v>20000</v>
@@ -4682,7 +4722,7 @@
     </row>
     <row r="130" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE130" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF130">
         <v>10600</v>
@@ -4690,7 +4730,7 @@
     </row>
     <row r="131" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE131" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF131">
         <v>5700</v>
@@ -4698,7 +4738,7 @@
     </row>
     <row r="132" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE132" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF132">
         <v>5700</v>
@@ -4706,7 +4746,7 @@
     </row>
     <row r="133" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE133" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF133">
         <v>20000</v>
@@ -4714,7 +4754,7 @@
     </row>
     <row r="134" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE134" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF134">
         <v>5700</v>
@@ -4722,7 +4762,7 @@
     </row>
     <row r="135" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE135" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF135">
         <v>5700</v>
@@ -4730,7 +4770,7 @@
     </row>
     <row r="136" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE136" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF136">
         <v>5700</v>
@@ -4738,7 +4778,7 @@
     </row>
     <row r="137" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE137" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF137">
         <v>5700</v>
@@ -4746,7 +4786,7 @@
     </row>
     <row r="138" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE138" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF138">
         <v>5700</v>
@@ -4754,7 +4794,7 @@
     </row>
     <row r="139" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE139" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF139">
         <v>5700</v>
@@ -4762,7 +4802,7 @@
     </row>
     <row r="140" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE140" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF140">
         <v>10600</v>
@@ -4770,7 +4810,7 @@
     </row>
     <row r="141" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE141" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF141">
         <v>5700</v>
@@ -4778,7 +4818,7 @@
     </row>
     <row r="142" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE142" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF142">
         <v>5700</v>
@@ -4786,7 +4826,7 @@
     </row>
     <row r="143" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE143" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF143">
         <v>5700</v>
@@ -4794,7 +4834,7 @@
     </row>
     <row r="144" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE144" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF144">
         <v>5700</v>
@@ -4802,7 +4842,7 @@
     </row>
     <row r="145" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE145" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF145">
         <v>10600</v>
@@ -4810,7 +4850,7 @@
     </row>
     <row r="146" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE146" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF146">
         <v>20000</v>
@@ -4818,7 +4858,7 @@
     </row>
     <row r="147" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE147" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF147">
         <v>10600</v>
@@ -4826,7 +4866,7 @@
     </row>
     <row r="148" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE148" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF148">
         <v>5700</v>
@@ -4834,7 +4874,7 @@
     </row>
     <row r="149" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE149" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF149">
         <v>5700</v>
@@ -4842,7 +4882,7 @@
     </row>
     <row r="150" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE150" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF150">
         <v>5700</v>
@@ -4850,7 +4890,7 @@
     </row>
     <row r="151" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE151" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF151">
         <v>5700</v>
@@ -4858,7 +4898,7 @@
     </row>
     <row r="152" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE152" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF152">
         <v>10600</v>
@@ -4866,7 +4906,7 @@
     </row>
     <row r="153" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE153" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF153">
         <v>5700</v>
@@ -4874,7 +4914,7 @@
     </row>
     <row r="154" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE154" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF154">
         <v>5700</v>
@@ -4882,7 +4922,7 @@
     </row>
     <row r="155" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE155" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF155">
         <v>5700</v>
@@ -4890,7 +4930,7 @@
     </row>
     <row r="156" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE156" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF156">
         <v>10600</v>
@@ -4898,7 +4938,7 @@
     </row>
     <row r="157" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF157">
         <v>5700</v>
@@ -4906,7 +4946,7 @@
     </row>
     <row r="158" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE158" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF158">
         <v>20000</v>
@@ -4914,7 +4954,7 @@
     </row>
     <row r="159" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF159">
         <v>5700</v>
@@ -4922,7 +4962,7 @@
     </row>
     <row r="160" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE160" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF160">
         <v>10600</v>
@@ -4930,7 +4970,7 @@
     </row>
     <row r="161" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE161" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF161">
         <v>5700</v>
@@ -4938,7 +4978,7 @@
     </row>
     <row r="162" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE162" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF162">
         <v>20000</v>
@@ -4946,7 +4986,7 @@
     </row>
     <row r="163" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE163" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF163">
         <v>10600</v>
@@ -4954,7 +4994,7 @@
     </row>
     <row r="164" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE164" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF164">
         <v>5700</v>
@@ -4962,7 +5002,7 @@
     </row>
     <row r="165" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE165" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF165">
         <v>5700</v>
@@ -4970,7 +5010,7 @@
     </row>
     <row r="166" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE166" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF166">
         <v>10600</v>
@@ -4978,7 +5018,7 @@
     </row>
     <row r="167" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE167" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF167">
         <v>10600</v>
@@ -4986,7 +5026,7 @@
     </row>
     <row r="168" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE168" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF168">
         <v>20000</v>
@@ -4994,7 +5034,7 @@
     </row>
     <row r="169" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE169" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF169">
         <v>5700</v>
@@ -5002,7 +5042,7 @@
     </row>
     <row r="170" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE170" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF170">
         <v>5700</v>
@@ -5010,7 +5050,7 @@
     </row>
     <row r="171" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE171" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF171">
         <v>5700</v>
@@ -5018,7 +5058,7 @@
     </row>
     <row r="172" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE172" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF172">
         <v>5700</v>
@@ -5026,7 +5066,7 @@
     </row>
     <row r="173" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE173" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF173">
         <v>5700</v>
@@ -5034,7 +5074,7 @@
     </row>
     <row r="174" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE174" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF174">
         <v>5700</v>
@@ -5042,7 +5082,7 @@
     </row>
     <row r="175" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE175" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF175">
         <v>5700</v>
@@ -5050,7 +5090,7 @@
     </row>
     <row r="176" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE176" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF176">
         <v>5700</v>
@@ -5058,7 +5098,7 @@
     </row>
     <row r="177" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE177" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF177">
         <v>20000</v>
@@ -5066,7 +5106,7 @@
     </row>
     <row r="178" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE178" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF178">
         <v>20000</v>
@@ -5074,7 +5114,7 @@
     </row>
     <row r="179" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE179" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF179">
         <v>20000</v>
@@ -5082,7 +5122,7 @@
     </row>
     <row r="180" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE180" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF180">
         <v>5700</v>
@@ -5090,7 +5130,7 @@
     </row>
     <row r="181" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE181" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF181">
         <v>5700</v>
@@ -5098,7 +5138,7 @@
     </row>
     <row r="182" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE182" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF182">
         <v>10600</v>
@@ -5106,7 +5146,7 @@
     </row>
     <row r="183" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE183" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF183">
         <v>20000</v>
@@ -5114,7 +5154,7 @@
     </row>
     <row r="184" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE184" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF184">
         <v>10600</v>
@@ -5122,7 +5162,7 @@
     </row>
     <row r="185" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE185" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF185">
         <v>5700</v>
@@ -5130,7 +5170,7 @@
     </row>
     <row r="186" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE186" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF186">
         <v>5700</v>
@@ -5138,7 +5178,7 @@
     </row>
     <row r="187" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE187" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF187">
         <v>5700</v>
@@ -5146,7 +5186,7 @@
     </row>
     <row r="188" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE188" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF188">
         <v>10600</v>
@@ -5154,7 +5194,7 @@
     </row>
     <row r="189" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE189" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF189">
         <v>5700</v>
@@ -5162,7 +5202,7 @@
     </row>
     <row r="190" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE190" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF190">
         <v>10600</v>
@@ -5170,7 +5210,7 @@
     </row>
     <row r="191" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE191" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF191">
         <v>10600</v>
@@ -5178,7 +5218,7 @@
     </row>
     <row r="192" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE192" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF192">
         <v>5700</v>
@@ -5186,7 +5226,7 @@
     </row>
     <row r="193" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE193" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF193">
         <v>5700</v>
@@ -5194,7 +5234,7 @@
     </row>
     <row r="194" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE194" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF194">
         <v>5700</v>
@@ -5202,7 +5242,7 @@
     </row>
     <row r="195" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE195" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF195">
         <v>5700</v>
@@ -5210,7 +5250,7 @@
     </row>
     <row r="196" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE196" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF196">
         <v>5700</v>
@@ -5218,7 +5258,7 @@
     </row>
     <row r="197" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE197" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF197">
         <v>5700</v>
@@ -5226,7 +5266,7 @@
     </row>
     <row r="198" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE198" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF198">
         <v>10600</v>
@@ -5234,7 +5274,7 @@
     </row>
     <row r="199" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE199" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF199">
         <v>10600</v>
@@ -5242,7 +5282,7 @@
     </row>
     <row r="200" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE200" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF200">
         <v>10600</v>
@@ -5250,7 +5290,7 @@
     </row>
     <row r="201" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE201" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF201">
         <v>10600</v>
@@ -5258,7 +5298,7 @@
     </row>
     <row r="202" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE202" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF202">
         <v>20000</v>
@@ -5266,7 +5306,7 @@
     </row>
     <row r="203" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE203" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF203">
         <v>10600</v>
@@ -5274,7 +5314,7 @@
     </row>
     <row r="204" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE204" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF204">
         <v>10600</v>
@@ -5282,7 +5322,7 @@
     </row>
     <row r="205" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE205" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF205">
         <v>5700</v>
@@ -5290,7 +5330,7 @@
     </row>
     <row r="206" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE206" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF206">
         <v>20000</v>
@@ -5298,7 +5338,7 @@
     </row>
     <row r="207" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE207" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF207">
         <v>5700</v>
@@ -5306,7 +5346,7 @@
     </row>
     <row r="208" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE208" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF208">
         <v>10600</v>
@@ -5314,7 +5354,7 @@
     </row>
     <row r="209" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE209" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF209">
         <v>20000</v>
@@ -5322,7 +5362,7 @@
     </row>
     <row r="210" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE210" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF210">
         <v>10600</v>
@@ -5330,7 +5370,7 @@
     </row>
     <row r="211" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE211" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF211">
         <v>5700</v>
@@ -5338,7 +5378,7 @@
     </row>
     <row r="212" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE212" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF212">
         <v>5700</v>
@@ -5346,7 +5386,7 @@
     </row>
     <row r="213" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE213" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF213">
         <v>20000</v>
@@ -5354,7 +5394,7 @@
     </row>
     <row r="214" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE214" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF214">
         <v>5700</v>
@@ -5362,7 +5402,7 @@
     </row>
     <row r="215" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE215" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF215">
         <v>20000</v>
@@ -5370,7 +5410,7 @@
     </row>
     <row r="216" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE216" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF216">
         <v>5700</v>
@@ -5378,7 +5418,7 @@
     </row>
     <row r="217" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE217" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF217">
         <v>10600</v>
@@ -5386,7 +5426,7 @@
     </row>
     <row r="218" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE218" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF218">
         <v>20000</v>
@@ -5394,7 +5434,7 @@
     </row>
     <row r="219" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE219" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF219">
         <v>5700</v>
@@ -5402,7 +5442,7 @@
     </row>
     <row r="220" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE220" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF220">
         <v>5700</v>
@@ -5410,7 +5450,7 @@
     </row>
     <row r="221" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE221" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF221">
         <v>10600</v>
@@ -5418,7 +5458,7 @@
     </row>
     <row r="222" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE222" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF222">
         <v>5700</v>
@@ -5426,7 +5466,7 @@
     </row>
     <row r="223" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE223" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF223">
         <v>10600</v>
@@ -5434,7 +5474,7 @@
     </row>
     <row r="224" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE224" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF224">
         <v>10600</v>
@@ -5442,7 +5482,7 @@
     </row>
     <row r="225" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE225" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF225">
         <v>5700</v>
@@ -5450,7 +5490,7 @@
     </row>
     <row r="226" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE226" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF226">
         <v>5700</v>
@@ -5458,7 +5498,7 @@
     </row>
     <row r="227" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE227" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF227">
         <v>20000</v>
@@ -5466,7 +5506,7 @@
     </row>
     <row r="228" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE228" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF228">
         <v>10600</v>
@@ -5474,7 +5514,7 @@
     </row>
     <row r="229" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE229" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF229">
         <v>20000</v>
@@ -5482,7 +5522,7 @@
     </row>
     <row r="230" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE230" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF230">
         <v>20000</v>
@@ -5490,7 +5530,7 @@
     </row>
     <row r="231" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE231" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF231">
         <v>5700</v>
@@ -5498,7 +5538,7 @@
     </row>
     <row r="232" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE232" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF232">
         <v>5700</v>
@@ -5506,7 +5546,7 @@
     </row>
     <row r="233" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE233" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF233">
         <v>5700</v>
@@ -5514,7 +5554,7 @@
     </row>
     <row r="234" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE234" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF234">
         <v>10600</v>
@@ -5522,7 +5562,7 @@
     </row>
     <row r="235" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE235" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF235">
         <v>5700</v>
@@ -5530,7 +5570,7 @@
     </row>
     <row r="236" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE236" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF236">
         <v>10600</v>
@@ -5538,7 +5578,7 @@
     </row>
     <row r="237" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE237" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF237">
         <v>10600</v>
@@ -5546,7 +5586,7 @@
     </row>
     <row r="238" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE238" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF238">
         <v>20000</v>
@@ -5554,7 +5594,7 @@
     </row>
     <row r="239" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE239" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF239">
         <v>20000</v>
@@ -5562,7 +5602,7 @@
     </row>
     <row r="240" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE240" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF240">
         <v>5700</v>
@@ -5570,7 +5610,7 @@
     </row>
     <row r="241" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE241" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF241">
         <v>5700</v>
@@ -5578,7 +5618,7 @@
     </row>
     <row r="242" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE242" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF242">
         <v>10600</v>
@@ -5586,7 +5626,7 @@
     </row>
     <row r="243" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE243" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF243">
         <v>20000</v>
@@ -5594,7 +5634,7 @@
     </row>
     <row r="244" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE244" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF244">
         <v>5700</v>
@@ -5602,7 +5642,7 @@
     </row>
     <row r="245" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE245" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF245">
         <v>5700</v>
@@ -5610,7 +5650,7 @@
     </row>
     <row r="246" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE246" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF246">
         <v>20000</v>
@@ -5618,7 +5658,7 @@
     </row>
     <row r="247" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE247" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF247">
         <v>10600</v>
@@ -5626,7 +5666,7 @@
     </row>
     <row r="248" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE248" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF248">
         <v>5700</v>
@@ -5634,7 +5674,7 @@
     </row>
     <row r="249" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE249" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF249">
         <v>5700</v>
@@ -5642,7 +5682,7 @@
     </row>
     <row r="250" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE250" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF250">
         <v>5700</v>
@@ -5650,7 +5690,7 @@
     </row>
     <row r="251" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE251" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF251">
         <v>5700</v>
@@ -5658,7 +5698,7 @@
     </row>
     <row r="252" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE252" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF252">
         <v>5700</v>
@@ -5666,7 +5706,7 @@
     </row>
     <row r="253" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE253" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF253">
         <v>10600</v>
@@ -5674,7 +5714,7 @@
     </row>
     <row r="254" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE254" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF254">
         <v>5700</v>
@@ -5682,7 +5722,7 @@
     </row>
     <row r="255" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE255" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF255">
         <v>5700</v>
@@ -5690,7 +5730,7 @@
     </row>
     <row r="256" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE256" t="s">
-        <v>314</v>
+        <v>33</v>
       </c>
       <c r="AF256">
         <v>5700</v>
@@ -6243,7 +6283,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="10">
         <v>120</v>
@@ -6297,7 +6337,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10">
         <v>120</v>
@@ -6351,7 +6391,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C7" s="10">
         <v>100</v>
@@ -6399,7 +6439,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" s="13">
         <v>100</v>
@@ -6447,7 +6487,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" s="13">
         <v>100</v>
@@ -6495,7 +6535,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" s="13">
         <v>90</v>
@@ -6543,7 +6583,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C11" s="13">
         <v>80</v>

--- a/src/lib/gen-generic/port-battle.xlsx
+++ b/src/lib/gen-generic/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="451">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -113,850 +113,853 @@
     <t>Arecibo</t>
   </si>
   <si>
+    <t>Santa Ana (i)</t>
+  </si>
+  <si>
+    <t>Atchafalaya</t>
+  </si>
+  <si>
+    <t>St. Pavel</t>
+  </si>
+  <si>
+    <t>Atwoods</t>
+  </si>
+  <si>
+    <t>Admiraal de Ruyter</t>
+  </si>
+  <si>
+    <t>Aves</t>
+  </si>
+  <si>
+    <t>Implacable</t>
+  </si>
+  <si>
+    <t>Ayamonte</t>
+  </si>
+  <si>
+    <t>Redoutable (i)</t>
+  </si>
+  <si>
+    <t>Ays</t>
+  </si>
+  <si>
+    <t>Bellona</t>
+  </si>
+  <si>
+    <t>Azua</t>
+  </si>
+  <si>
+    <t>Wasa</t>
+  </si>
+  <si>
+    <t>Bahía Escocesa</t>
+  </si>
+  <si>
+    <t>3rd Rate</t>
+  </si>
+  <si>
+    <t>Bahía Honda</t>
+  </si>
+  <si>
+    <t>Constitution</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>USS United States</t>
+  </si>
+  <si>
+    <t>Baní</t>
+  </si>
+  <si>
+    <t>Agamemnon</t>
+  </si>
+  <si>
+    <t>Baracoa</t>
+  </si>
+  <si>
+    <t>Rättvisan (i)</t>
+  </si>
+  <si>
+    <t>Barahona</t>
+  </si>
+  <si>
+    <t>Ingermanland</t>
+  </si>
+  <si>
+    <t>Barataria</t>
+  </si>
+  <si>
+    <t>Wapen von Hamburg</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Basse-Terre</t>
+  </si>
+  <si>
+    <t>Leopard (i)</t>
+  </si>
+  <si>
+    <t>Basseterre Town</t>
+  </si>
+  <si>
+    <t>Endymion</t>
+  </si>
+  <si>
+    <t>Batabanó</t>
+  </si>
+  <si>
+    <t>Trincomalee</t>
+  </si>
+  <si>
+    <t>Beaufort</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Bensalem</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Bernal</t>
+  </si>
+  <si>
+    <t>L’Hermione (i)</t>
+  </si>
+  <si>
+    <t>Biloxi</t>
+  </si>
+  <si>
+    <t>La Belle-Poule</t>
+  </si>
+  <si>
+    <t>Black River</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Bluefields</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Bonacca</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Brangman’s Bluff</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+  </si>
+  <si>
+    <t>La Renommée</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
+    <t>Buena Vista</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Cabo Cañaveral</t>
+  </si>
+  <si>
+    <t>Hercules (i)</t>
+  </si>
+  <si>
+    <t>Cabo de la Vela</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>Cabo Rojo</t>
+  </si>
+  <si>
+    <t>Pandora (i)</t>
+  </si>
+  <si>
+    <t>Calcasieu</t>
+  </si>
+  <si>
+    <t>Le Requin (i)</t>
+  </si>
+  <si>
+    <t>Calobelo</t>
+  </si>
+  <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Camp du Roy</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
+    <t>Mortar Brig</t>
+  </si>
+  <si>
+    <t>Canalete</t>
+  </si>
+  <si>
+    <t>Caño Araguabisi</t>
+  </si>
+  <si>
+    <t>Caño Araguao</t>
+  </si>
+  <si>
+    <t>Caño Macareo</t>
+  </si>
+  <si>
+    <t>Cap-Français</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Cariaco</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Carriacou</t>
+  </si>
+  <si>
+    <t>Cartagena de Indias</t>
+  </si>
+  <si>
+    <t>Carúpano</t>
+  </si>
+  <si>
+    <t>Casigua</t>
+  </si>
+  <si>
+    <t>Castries</t>
+  </si>
+  <si>
+    <t>Cayman Brac</t>
+  </si>
+  <si>
+    <t>Cayo Biscayno</t>
+  </si>
+  <si>
+    <t>Cayo de Sal</t>
+  </si>
+  <si>
+    <t>Cayo del Anclote</t>
+  </si>
+  <si>
+    <t>Cayo Romano</t>
+  </si>
+  <si>
+    <t>Chagres</t>
+  </si>
+  <si>
+    <t>Champotón</t>
+  </si>
+  <si>
+    <t>Charles Town</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Christiansted</t>
+  </si>
+  <si>
+    <t>Codrington</t>
+  </si>
+  <si>
+    <t>Cojoro</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Congrios</t>
+  </si>
+  <si>
+    <t>Conil</t>
+  </si>
+  <si>
+    <t>Constance</t>
+  </si>
+  <si>
+    <t>Conttoy</t>
+  </si>
+  <si>
+    <t>Coquibacoa</t>
+  </si>
+  <si>
+    <t>Coral Bay</t>
+  </si>
+  <si>
+    <t>Coro</t>
+  </si>
+  <si>
+    <t>Corrientes</t>
+  </si>
+  <si>
+    <t>Cul-de-Sac</t>
+  </si>
+  <si>
+    <t>Cumaná</t>
+  </si>
+  <si>
+    <t>Dariena</t>
+  </si>
+  <si>
+    <t>Deshaies</t>
+  </si>
+  <si>
+    <t>El Cuyo</t>
+  </si>
+  <si>
+    <t>El Rancho</t>
+  </si>
+  <si>
+    <t>El Soco</t>
+  </si>
+  <si>
+    <t>El Toco</t>
+  </si>
+  <si>
+    <t>Encontrados</t>
+  </si>
+  <si>
+    <t>English Harbour</t>
+  </si>
+  <si>
+    <t>Espíritu Santo</t>
+  </si>
+  <si>
+    <t>Esteros</t>
+  </si>
+  <si>
+    <t>Fajardo</t>
+  </si>
+  <si>
+    <t>Flatts</t>
+  </si>
+  <si>
+    <t>Fort Baai</t>
+  </si>
+  <si>
+    <t>Fort Oranje</t>
+  </si>
+  <si>
+    <t>Fort Zoutman</t>
+  </si>
+  <si>
+    <t>Fort-Dauphin</t>
+  </si>
+  <si>
+    <t>Fort-Royal</t>
+  </si>
+  <si>
+    <t>Frederiksted</t>
+  </si>
+  <si>
+    <t>Galdonas</t>
+  </si>
+  <si>
+    <t>Gasparilla</t>
+  </si>
+  <si>
+    <t>George Town</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Gracias a Dios</t>
+  </si>
+  <si>
+    <t>Grand Anse</t>
+  </si>
+  <si>
+    <t>Grand Turk</t>
+  </si>
+  <si>
+    <t>Great Corn</t>
+  </si>
+  <si>
+    <t>Great River</t>
+  </si>
+  <si>
+    <t>Grindstone</t>
+  </si>
+  <si>
+    <t>Guamá Sevilla</t>
+  </si>
+  <si>
+    <t>Guánica</t>
+  </si>
+  <si>
+    <t>Guayaguayare</t>
+  </si>
+  <si>
+    <t>Guayama</t>
+  </si>
+  <si>
+    <t>Guibara</t>
+  </si>
+  <si>
+    <t>Güiria</t>
+  </si>
+  <si>
+    <t>Gustavia</t>
+  </si>
+  <si>
+    <t>Hat Island</t>
+  </si>
+  <si>
+    <t>Higüey</t>
+  </si>
+  <si>
+    <t>Islamorada</t>
+  </si>
+  <si>
+    <t>Island Harbour</t>
+  </si>
+  <si>
+    <t>Jacmel</t>
+  </si>
+  <si>
+    <t>Jagua</t>
+  </si>
+  <si>
+    <t>Jérémie</t>
+  </si>
+  <si>
+    <t>Jobe</t>
+  </si>
+  <si>
+    <t>Key West</t>
+  </si>
+  <si>
+    <t>Kidd’s Harbour</t>
+  </si>
+  <si>
+    <t>Kingston / Port Royal</t>
+  </si>
+  <si>
+    <t>Kingstown</t>
+  </si>
+  <si>
+    <t>La Blanquilla</t>
+  </si>
+  <si>
+    <t>La Désirade</t>
+  </si>
+  <si>
+    <t>La Habana</t>
+  </si>
+  <si>
+    <t>La Isabela</t>
+  </si>
+  <si>
+    <t>La Mona</t>
+  </si>
+  <si>
+    <t>La Moussette</t>
+  </si>
+  <si>
+    <t>La Navasse</t>
+  </si>
+  <si>
+    <t>La Orchilla</t>
+  </si>
+  <si>
+    <t>La Tortue</t>
+  </si>
+  <si>
+    <t>La Trinité</t>
+  </si>
+  <si>
+    <t>Lagunillas</t>
+  </si>
+  <si>
+    <t>Las Aves</t>
+  </si>
+  <si>
+    <t>Las Tortugas</t>
+  </si>
+  <si>
+    <t>Le Moule</t>
+  </si>
+  <si>
+    <t>Léogane</t>
+  </si>
+  <si>
+    <t>Les Cayes</t>
+  </si>
+  <si>
+    <t>Les Gonaïves</t>
+  </si>
+  <si>
+    <t>Little Cayman</t>
+  </si>
+  <si>
+    <t>Little Inagua</t>
+  </si>
+  <si>
+    <t>Little River</t>
+  </si>
+  <si>
+    <t>Lorimers</t>
+  </si>
+  <si>
+    <t>Macanao</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Manataca</t>
+  </si>
+  <si>
+    <t>Mandinga</t>
+  </si>
+  <si>
+    <t>Mantua</t>
+  </si>
+  <si>
+    <t>Manzanillo</t>
+  </si>
+  <si>
+    <t>Maracaibo</t>
+  </si>
+  <si>
+    <t>Mariel</t>
+  </si>
+  <si>
+    <t>Marigot</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Matanzas</t>
+  </si>
+  <si>
+    <t>Matina</t>
+  </si>
+  <si>
+    <t>Misteriosa</t>
+  </si>
+  <si>
+    <t>Mitara</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Montecristi</t>
+  </si>
+  <si>
+    <t>Montego Bay</t>
+  </si>
+  <si>
+    <t>Morro Chico</t>
+  </si>
+  <si>
+    <t>Mortimer Town</t>
+  </si>
+  <si>
+    <t>Mugeres</t>
+  </si>
+  <si>
+    <t>Naparima</t>
+  </si>
+  <si>
+    <t>New Edinburgh</t>
+  </si>
+  <si>
+    <t>New Smyrna</t>
+  </si>
+  <si>
+    <t>Nippes</t>
+  </si>
+  <si>
+    <t>North Inlet</t>
+  </si>
+  <si>
+    <t>Nouvelle-Orléans</t>
+  </si>
+  <si>
+    <t>Nueva Barcelona</t>
+  </si>
+  <si>
+    <t>Nuevitas</t>
+  </si>
+  <si>
+    <t>Ocean Bight</t>
+  </si>
+  <si>
+    <t>Old Providence</t>
+  </si>
+  <si>
+    <t>Omoa</t>
+  </si>
+  <si>
+    <t>Oranjestad</t>
+  </si>
+  <si>
+    <t>Pampatar</t>
+  </si>
+  <si>
+    <t>Parrot Cay</t>
+  </si>
+  <si>
+    <t>Pasaje</t>
+  </si>
+  <si>
+    <t>Pedernales</t>
+  </si>
+  <si>
+    <t>Penzacola</t>
+  </si>
+  <si>
+    <t>Perijá</t>
+  </si>
+  <si>
+    <t>Philipsburg</t>
+  </si>
+  <si>
+    <t>Pinar del Río</t>
+  </si>
+  <si>
+    <t>Píritu</t>
+  </si>
+  <si>
+    <t>Pitt’s Town</t>
+  </si>
+  <si>
+    <t>Placentia</t>
+  </si>
+  <si>
+    <t>Placer</t>
+  </si>
+  <si>
+    <t>Playón</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Pointe-à-Pitre</t>
+  </si>
+  <si>
+    <t>Ponce</t>
+  </si>
+  <si>
+    <t>Port Antonio</t>
+  </si>
+  <si>
+    <t>Port Morant</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>Port-de-Paix</t>
+  </si>
+  <si>
+    <t>Port-Louis</t>
+  </si>
+  <si>
+    <t>Portillo</t>
+  </si>
+  <si>
+    <t>Portobelo</t>
+  </si>
+  <si>
+    <t>Prinzapolka</t>
+  </si>
+  <si>
+    <t>Puerto Cabello</t>
+  </si>
+  <si>
+    <t>Puerto de España</t>
+  </si>
+  <si>
+    <t>Puerto de Nipe</t>
+  </si>
+  <si>
+    <t>Puerto del Padre</t>
+  </si>
+  <si>
+    <t>Puerto Escondido</t>
+  </si>
+  <si>
+    <t>Puerto Plata</t>
+  </si>
+  <si>
+    <t>Puerto Real</t>
+  </si>
+  <si>
+    <t>Remedios</t>
+  </si>
+  <si>
+    <t>Rincón</t>
+  </si>
+  <si>
+    <t>Río Chico</t>
+  </si>
+  <si>
+    <t>Río de la Hacha</t>
+  </si>
+  <si>
+    <t>Río Seco</t>
+  </si>
+  <si>
+    <t>Río Tocuyo</t>
+  </si>
+  <si>
+    <t>Road Town</t>
+  </si>
+  <si>
+    <t>Robras</t>
+  </si>
+  <si>
+    <t>Rosaly</t>
+  </si>
+  <si>
+    <t>Roseau</t>
+  </si>
+  <si>
+    <t>Ruatan</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>Saint Ann</t>
+  </si>
+  <si>
+    <t>Saint George</t>
+  </si>
+  <si>
+    <t>Saint George’s Town</t>
+  </si>
+  <si>
+    <t>Saint John’s</t>
+  </si>
+  <si>
+    <t>Saint Joseph</t>
+  </si>
+  <si>
+    <t>Saint Marys</t>
+  </si>
+  <si>
+    <t>Saint-François</t>
+  </si>
+  <si>
+    <t>Saint-Louis</t>
+  </si>
+  <si>
+    <t>Saint-Malo</t>
+  </si>
+  <si>
+    <t>Saint-Marc</t>
+  </si>
+  <si>
+    <t>Saint-Nicolas</t>
+  </si>
+  <si>
+    <t>Saint-Pierre</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t>Sale-Trou</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Samaná</t>
+  </si>
+  <si>
+    <t>San Agustín</t>
+  </si>
+  <si>
+    <t>San Andrés</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>San Juan del Norte</t>
+  </si>
+  <si>
+    <t>San Lazaro</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>San Mateo</t>
+  </si>
+  <si>
+    <t>San Sebastian</t>
+  </si>
+  <si>
+    <t>San Timoteo</t>
+  </si>
+  <si>
+    <t>Sancti Spíritus</t>
+  </si>
+  <si>
+    <t>Sandy Bay</t>
+  </si>
+  <si>
+    <t>Sandy Hill</t>
+  </si>
+  <si>
     <t>Santa Ana</t>
-  </si>
-  <si>
-    <t>Atchafalaya</t>
-  </si>
-  <si>
-    <t>St. Pavel</t>
-  </si>
-  <si>
-    <t>Atwoods</t>
-  </si>
-  <si>
-    <t>Admiraal de Ruyter</t>
-  </si>
-  <si>
-    <t>Aves</t>
-  </si>
-  <si>
-    <t>Implacable</t>
-  </si>
-  <si>
-    <t>Ayamonte</t>
-  </si>
-  <si>
-    <t>Redoutable (i)</t>
-  </si>
-  <si>
-    <t>Ays</t>
-  </si>
-  <si>
-    <t>Bellona</t>
-  </si>
-  <si>
-    <t>Azua</t>
-  </si>
-  <si>
-    <t>Wasa</t>
-  </si>
-  <si>
-    <t>Bahía Escocesa</t>
-  </si>
-  <si>
-    <t>3rd Rate</t>
-  </si>
-  <si>
-    <t>Bahía Honda</t>
-  </si>
-  <si>
-    <t>Constitution</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>USS United States</t>
-  </si>
-  <si>
-    <t>Baní</t>
-  </si>
-  <si>
-    <t>Agamemnon</t>
-  </si>
-  <si>
-    <t>Baracoa</t>
-  </si>
-  <si>
-    <t>Rättvisan (i)</t>
-  </si>
-  <si>
-    <t>Barahona</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
-  </si>
-  <si>
-    <t>Barataria</t>
-  </si>
-  <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
-    <t>Barranquilla</t>
-  </si>
-  <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Basse-Terre</t>
-  </si>
-  <si>
-    <t>Leopard (i)</t>
-  </si>
-  <si>
-    <t>Basseterre Town</t>
-  </si>
-  <si>
-    <t>Endymion</t>
-  </si>
-  <si>
-    <t>Batabanó</t>
-  </si>
-  <si>
-    <t>Trincomalee</t>
-  </si>
-  <si>
-    <t>Beaufort</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Bensalem</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>Bernal</t>
-  </si>
-  <si>
-    <t>L’Hermione (i)</t>
-  </si>
-  <si>
-    <t>Biloxi</t>
-  </si>
-  <si>
-    <t>La Belle-Poule</t>
-  </si>
-  <si>
-    <t>Black River</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Bluefields</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>Bonacca</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Brangman’s Bluff</t>
-  </si>
-  <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
-    <t>Bridgetown</t>
-  </si>
-  <si>
-    <t>La Renommée</t>
-  </si>
-  <si>
-    <t>Brunswick</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>Buena Vista</t>
-  </si>
-  <si>
-    <t>Surprise</t>
-  </si>
-  <si>
-    <t>Cabo Cañaveral</t>
-  </si>
-  <si>
-    <t>Hercules (i)</t>
-  </si>
-  <si>
-    <t>Cabo de la Vela</t>
-  </si>
-  <si>
-    <t>Cerberus</t>
-  </si>
-  <si>
-    <t>Cabo Rojo</t>
-  </si>
-  <si>
-    <t>Pandora (i)</t>
-  </si>
-  <si>
-    <t>Calcasieu</t>
-  </si>
-  <si>
-    <t>Le Requin (i)</t>
-  </si>
-  <si>
-    <t>Calobelo</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
-    <t>Camp du Roy</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Campeche</t>
-  </si>
-  <si>
-    <t>Mortar Brig</t>
-  </si>
-  <si>
-    <t>Canalete</t>
-  </si>
-  <si>
-    <t>Caño Araguabisi</t>
-  </si>
-  <si>
-    <t>Caño Araguao</t>
-  </si>
-  <si>
-    <t>Caño Macareo</t>
-  </si>
-  <si>
-    <t>Cap-Français</t>
-  </si>
-  <si>
-    <t>Caracas</t>
-  </si>
-  <si>
-    <t>Cariaco</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Carriacou</t>
-  </si>
-  <si>
-    <t>Cartagena de Indias</t>
-  </si>
-  <si>
-    <t>Carúpano</t>
-  </si>
-  <si>
-    <t>Casigua</t>
-  </si>
-  <si>
-    <t>Castries</t>
-  </si>
-  <si>
-    <t>Cayman Brac</t>
-  </si>
-  <si>
-    <t>Cayo Biscayno</t>
-  </si>
-  <si>
-    <t>Cayo de Sal</t>
-  </si>
-  <si>
-    <t>Cayo del Anclote</t>
-  </si>
-  <si>
-    <t>Cayo Romano</t>
-  </si>
-  <si>
-    <t>Chagres</t>
-  </si>
-  <si>
-    <t>Champotón</t>
-  </si>
-  <si>
-    <t>Charles Town</t>
-  </si>
-  <si>
-    <t>Charleston</t>
-  </si>
-  <si>
-    <t>Christiansted</t>
-  </si>
-  <si>
-    <t>Codrington</t>
-  </si>
-  <si>
-    <t>Cojoro</t>
-  </si>
-  <si>
-    <t>Concepción</t>
-  </si>
-  <si>
-    <t>Congrios</t>
-  </si>
-  <si>
-    <t>Conil</t>
-  </si>
-  <si>
-    <t>Constance</t>
-  </si>
-  <si>
-    <t>Conttoy</t>
-  </si>
-  <si>
-    <t>Coquibacoa</t>
-  </si>
-  <si>
-    <t>Coral Bay</t>
-  </si>
-  <si>
-    <t>Coro</t>
-  </si>
-  <si>
-    <t>Corrientes</t>
-  </si>
-  <si>
-    <t>Cul-de-Sac</t>
-  </si>
-  <si>
-    <t>Cumaná</t>
-  </si>
-  <si>
-    <t>Dariena</t>
-  </si>
-  <si>
-    <t>Deshaies</t>
-  </si>
-  <si>
-    <t>El Cuyo</t>
-  </si>
-  <si>
-    <t>El Rancho</t>
-  </si>
-  <si>
-    <t>El Soco</t>
-  </si>
-  <si>
-    <t>El Toco</t>
-  </si>
-  <si>
-    <t>Encontrados</t>
-  </si>
-  <si>
-    <t>English Harbour</t>
-  </si>
-  <si>
-    <t>Espíritu Santo</t>
-  </si>
-  <si>
-    <t>Esteros</t>
-  </si>
-  <si>
-    <t>Fajardo</t>
-  </si>
-  <si>
-    <t>Flatts</t>
-  </si>
-  <si>
-    <t>Fort Baai</t>
-  </si>
-  <si>
-    <t>Fort Oranje</t>
-  </si>
-  <si>
-    <t>Fort Zoutman</t>
-  </si>
-  <si>
-    <t>Fort-Dauphin</t>
-  </si>
-  <si>
-    <t>Fort-Royal</t>
-  </si>
-  <si>
-    <t>Frederiksted</t>
-  </si>
-  <si>
-    <t>Galdonas</t>
-  </si>
-  <si>
-    <t>Gasparilla</t>
-  </si>
-  <si>
-    <t>George Town</t>
-  </si>
-  <si>
-    <t>Georgetown</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Gracias a Dios</t>
-  </si>
-  <si>
-    <t>Grand Anse</t>
-  </si>
-  <si>
-    <t>Grand Turk</t>
-  </si>
-  <si>
-    <t>Great Corn</t>
-  </si>
-  <si>
-    <t>Great River</t>
-  </si>
-  <si>
-    <t>Grindstone</t>
-  </si>
-  <si>
-    <t>Guamá Sevilla</t>
-  </si>
-  <si>
-    <t>Guánica</t>
-  </si>
-  <si>
-    <t>Guayaguayare</t>
-  </si>
-  <si>
-    <t>Guayama</t>
-  </si>
-  <si>
-    <t>Guibara</t>
-  </si>
-  <si>
-    <t>Güiria</t>
-  </si>
-  <si>
-    <t>Gustavia</t>
-  </si>
-  <si>
-    <t>Hat Island</t>
-  </si>
-  <si>
-    <t>Higüey</t>
-  </si>
-  <si>
-    <t>Islamorada</t>
-  </si>
-  <si>
-    <t>Island Harbour</t>
-  </si>
-  <si>
-    <t>Jacmel</t>
-  </si>
-  <si>
-    <t>Jagua</t>
-  </si>
-  <si>
-    <t>Jérémie</t>
-  </si>
-  <si>
-    <t>Jobe</t>
-  </si>
-  <si>
-    <t>Key West</t>
-  </si>
-  <si>
-    <t>Kidd’s Harbour</t>
-  </si>
-  <si>
-    <t>Kingston / Port Royal</t>
-  </si>
-  <si>
-    <t>Kingstown</t>
-  </si>
-  <si>
-    <t>La Blanquilla</t>
-  </si>
-  <si>
-    <t>La Désirade</t>
-  </si>
-  <si>
-    <t>La Habana</t>
-  </si>
-  <si>
-    <t>La Isabela</t>
-  </si>
-  <si>
-    <t>La Mona</t>
-  </si>
-  <si>
-    <t>La Moussette</t>
-  </si>
-  <si>
-    <t>La Navasse</t>
-  </si>
-  <si>
-    <t>La Orchilla</t>
-  </si>
-  <si>
-    <t>La Tortue</t>
-  </si>
-  <si>
-    <t>La Trinité</t>
-  </si>
-  <si>
-    <t>Lagunillas</t>
-  </si>
-  <si>
-    <t>Las Aves</t>
-  </si>
-  <si>
-    <t>Las Tortugas</t>
-  </si>
-  <si>
-    <t>Le Moule</t>
-  </si>
-  <si>
-    <t>Léogane</t>
-  </si>
-  <si>
-    <t>Les Cayes</t>
-  </si>
-  <si>
-    <t>Les Gonaïves</t>
-  </si>
-  <si>
-    <t>Little Cayman</t>
-  </si>
-  <si>
-    <t>Little Inagua</t>
-  </si>
-  <si>
-    <t>Little River</t>
-  </si>
-  <si>
-    <t>Lorimers</t>
-  </si>
-  <si>
-    <t>Macanao</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Manataca</t>
-  </si>
-  <si>
-    <t>Mandinga</t>
-  </si>
-  <si>
-    <t>Mantua</t>
-  </si>
-  <si>
-    <t>Manzanillo</t>
-  </si>
-  <si>
-    <t>Maracaibo</t>
-  </si>
-  <si>
-    <t>Mariel</t>
-  </si>
-  <si>
-    <t>Marigot</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Matanzas</t>
-  </si>
-  <si>
-    <t>Matina</t>
-  </si>
-  <si>
-    <t>Misteriosa</t>
-  </si>
-  <si>
-    <t>Mitara</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Montecristi</t>
-  </si>
-  <si>
-    <t>Montego Bay</t>
-  </si>
-  <si>
-    <t>Morro Chico</t>
-  </si>
-  <si>
-    <t>Mortimer Town</t>
-  </si>
-  <si>
-    <t>Mugeres</t>
-  </si>
-  <si>
-    <t>Naparima</t>
-  </si>
-  <si>
-    <t>New Edinburgh</t>
-  </si>
-  <si>
-    <t>New Smyrna</t>
-  </si>
-  <si>
-    <t>Nippes</t>
-  </si>
-  <si>
-    <t>North Inlet</t>
-  </si>
-  <si>
-    <t>Nouvelle-Orléans</t>
-  </si>
-  <si>
-    <t>Nueva Barcelona</t>
-  </si>
-  <si>
-    <t>Nuevitas</t>
-  </si>
-  <si>
-    <t>Ocean Bight</t>
-  </si>
-  <si>
-    <t>Old Providence</t>
-  </si>
-  <si>
-    <t>Omoa</t>
-  </si>
-  <si>
-    <t>Oranjestad</t>
-  </si>
-  <si>
-    <t>Pampatar</t>
-  </si>
-  <si>
-    <t>Parrot Cay</t>
-  </si>
-  <si>
-    <t>Pasaje</t>
-  </si>
-  <si>
-    <t>Pedernales</t>
-  </si>
-  <si>
-    <t>Penzacola</t>
-  </si>
-  <si>
-    <t>Perijá</t>
-  </si>
-  <si>
-    <t>Philipsburg</t>
-  </si>
-  <si>
-    <t>Pinar del Río</t>
-  </si>
-  <si>
-    <t>Píritu</t>
-  </si>
-  <si>
-    <t>Pitt’s Town</t>
-  </si>
-  <si>
-    <t>Placentia</t>
-  </si>
-  <si>
-    <t>Placer</t>
-  </si>
-  <si>
-    <t>Playón</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Pointe-à-Pitre</t>
-  </si>
-  <si>
-    <t>Ponce</t>
-  </si>
-  <si>
-    <t>Port Antonio</t>
-  </si>
-  <si>
-    <t>Port Morant</t>
-  </si>
-  <si>
-    <t>Port-au-Prince</t>
-  </si>
-  <si>
-    <t>Port-de-Paix</t>
-  </si>
-  <si>
-    <t>Port-Louis</t>
-  </si>
-  <si>
-    <t>Portillo</t>
-  </si>
-  <si>
-    <t>Portobelo</t>
-  </si>
-  <si>
-    <t>Prinzapolka</t>
-  </si>
-  <si>
-    <t>Puerto Cabello</t>
-  </si>
-  <si>
-    <t>Puerto de España</t>
-  </si>
-  <si>
-    <t>Puerto de Nipe</t>
-  </si>
-  <si>
-    <t>Puerto del Padre</t>
-  </si>
-  <si>
-    <t>Puerto Escondido</t>
-  </si>
-  <si>
-    <t>Puerto Plata</t>
-  </si>
-  <si>
-    <t>Puerto Real</t>
-  </si>
-  <si>
-    <t>Remedios</t>
-  </si>
-  <si>
-    <t>Rincón</t>
-  </si>
-  <si>
-    <t>Río Chico</t>
-  </si>
-  <si>
-    <t>Río de la Hacha</t>
-  </si>
-  <si>
-    <t>Río Seco</t>
-  </si>
-  <si>
-    <t>Río Tocuyo</t>
-  </si>
-  <si>
-    <t>Road Town</t>
-  </si>
-  <si>
-    <t>Robras</t>
-  </si>
-  <si>
-    <t>Rosaly</t>
-  </si>
-  <si>
-    <t>Roseau</t>
-  </si>
-  <si>
-    <t>Ruatan</t>
-  </si>
-  <si>
-    <t>Sabina</t>
-  </si>
-  <si>
-    <t>Saint Ann</t>
-  </si>
-  <si>
-    <t>Saint George</t>
-  </si>
-  <si>
-    <t>Saint George’s Town</t>
-  </si>
-  <si>
-    <t>Saint John’s</t>
-  </si>
-  <si>
-    <t>Saint Joseph</t>
-  </si>
-  <si>
-    <t>Saint Marys</t>
-  </si>
-  <si>
-    <t>Saint-François</t>
-  </si>
-  <si>
-    <t>Saint-Louis</t>
-  </si>
-  <si>
-    <t>Saint-Malo</t>
-  </si>
-  <si>
-    <t>Saint-Marc</t>
-  </si>
-  <si>
-    <t>Saint-Nicolas</t>
-  </si>
-  <si>
-    <t>Saint-Pierre</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
-  </si>
-  <si>
-    <t>Sale-Trou</t>
-  </si>
-  <si>
-    <t>Salinas</t>
-  </si>
-  <si>
-    <t>Samaná</t>
-  </si>
-  <si>
-    <t>San Agustín</t>
-  </si>
-  <si>
-    <t>San Andrés</t>
-  </si>
-  <si>
-    <t>San José</t>
-  </si>
-  <si>
-    <t>San Juan</t>
-  </si>
-  <si>
-    <t>San Juan del Norte</t>
-  </si>
-  <si>
-    <t>San Lazaro</t>
-  </si>
-  <si>
-    <t>San Luis</t>
-  </si>
-  <si>
-    <t>San Mateo</t>
-  </si>
-  <si>
-    <t>San Sebastian</t>
-  </si>
-  <si>
-    <t>San Timoteo</t>
-  </si>
-  <si>
-    <t>Sancti Spíritus</t>
-  </si>
-  <si>
-    <t>Sandy Bay</t>
-  </si>
-  <si>
-    <t>Sandy Hill</t>
   </si>
   <si>
     <t>Santa Cruz</t>
@@ -5730,7 +5733,7 @@
     </row>
     <row r="256" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE256" t="s">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="AF256">
         <v>5700</v>
@@ -5738,7 +5741,7 @@
     </row>
     <row r="257" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE257" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF257">
         <v>5700</v>
@@ -5746,7 +5749,7 @@
     </row>
     <row r="258" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE258" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF258">
         <v>5700</v>
@@ -5754,7 +5757,7 @@
     </row>
     <row r="259" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE259" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF259">
         <v>20000</v>
@@ -5762,7 +5765,7 @@
     </row>
     <row r="260" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE260" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF260">
         <v>5700</v>
@@ -5770,7 +5773,7 @@
     </row>
     <row r="261" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE261" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF261">
         <v>5700</v>
@@ -5778,7 +5781,7 @@
     </row>
     <row r="262" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE262" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF262">
         <v>20000</v>
@@ -5786,7 +5789,7 @@
     </row>
     <row r="263" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE263" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF263">
         <v>20000</v>
@@ -5794,7 +5797,7 @@
     </row>
     <row r="264" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE264" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF264">
         <v>10600</v>
@@ -5802,7 +5805,7 @@
     </row>
     <row r="265" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE265" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF265">
         <v>20000</v>
@@ -5810,7 +5813,7 @@
     </row>
     <row r="266" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE266" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF266">
         <v>5700</v>
@@ -5818,7 +5821,7 @@
     </row>
     <row r="267" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE267" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF267">
         <v>20000</v>
@@ -5826,7 +5829,7 @@
     </row>
     <row r="268" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE268" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF268">
         <v>10600</v>
@@ -5834,7 +5837,7 @@
     </row>
     <row r="269" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE269" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF269">
         <v>5700</v>
@@ -5842,7 +5845,7 @@
     </row>
     <row r="270" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE270" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF270">
         <v>10600</v>
@@ -5850,7 +5853,7 @@
     </row>
     <row r="271" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE271" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF271">
         <v>5700</v>
@@ -5858,7 +5861,7 @@
     </row>
     <row r="272" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE272" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF272">
         <v>20000</v>
@@ -5866,7 +5869,7 @@
     </row>
     <row r="273" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE273" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF273">
         <v>5700</v>
@@ -5874,7 +5877,7 @@
     </row>
     <row r="274" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE274" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF274">
         <v>10600</v>
@@ -5882,7 +5885,7 @@
     </row>
     <row r="275" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE275" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF275">
         <v>10600</v>
@@ -5890,7 +5893,7 @@
     </row>
     <row r="276" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE276" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF276">
         <v>10600</v>
@@ -5898,7 +5901,7 @@
     </row>
     <row r="277" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE277" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF277">
         <v>5700</v>
@@ -5906,7 +5909,7 @@
     </row>
     <row r="278" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE278" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF278">
         <v>5700</v>
@@ -5914,7 +5917,7 @@
     </row>
     <row r="279" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE279" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF279">
         <v>5700</v>
@@ -5922,7 +5925,7 @@
     </row>
     <row r="280" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE280" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF280">
         <v>5700</v>
@@ -5930,7 +5933,7 @@
     </row>
     <row r="281" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE281" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF281">
         <v>10600</v>
@@ -5938,7 +5941,7 @@
     </row>
     <row r="282" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE282" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF282">
         <v>5700</v>
@@ -5946,7 +5949,7 @@
     </row>
     <row r="283" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE283" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF283">
         <v>5700</v>
@@ -5954,7 +5957,7 @@
     </row>
     <row r="284" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE284" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF284">
         <v>5700</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="285" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE285" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF285">
         <v>10600</v>
@@ -5970,7 +5973,7 @@
     </row>
     <row r="286" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE286" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF286">
         <v>20000</v>
@@ -5978,7 +5981,7 @@
     </row>
     <row r="287" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE287" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF287">
         <v>5700</v>
@@ -5986,7 +5989,7 @@
     </row>
     <row r="288" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE288" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF288">
         <v>20000</v>
@@ -5994,7 +5997,7 @@
     </row>
     <row r="289" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE289" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF289">
         <v>10600</v>
@@ -6002,7 +6005,7 @@
     </row>
     <row r="290" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE290" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF290">
         <v>20000</v>
@@ -6010,7 +6013,7 @@
     </row>
     <row r="291" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE291" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF291">
         <v>5700</v>
@@ -6018,7 +6021,7 @@
     </row>
     <row r="292" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE292" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF292">
         <v>5700</v>
@@ -6026,7 +6029,7 @@
     </row>
     <row r="293" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE293" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF293">
         <v>5700</v>
@@ -6034,7 +6037,7 @@
     </row>
     <row r="294" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE294" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF294">
         <v>10600</v>
@@ -6042,7 +6045,7 @@
     </row>
     <row r="295" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE295" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF295">
         <v>20000</v>
@@ -6050,7 +6053,7 @@
     </row>
     <row r="296" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE296" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF296">
         <v>5700</v>
@@ -6058,7 +6061,7 @@
     </row>
     <row r="297" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE297" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF297">
         <v>5700</v>
@@ -6066,7 +6069,7 @@
     </row>
     <row r="298" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE298" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF298">
         <v>5700</v>
@@ -6074,7 +6077,7 @@
     </row>
     <row r="299" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE299" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF299">
         <v>10600</v>
@@ -6082,7 +6085,7 @@
     </row>
     <row r="300" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE300" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF300">
         <v>5700</v>
@@ -6090,7 +6093,7 @@
     </row>
     <row r="301" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE301" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF301">
         <v>20000</v>
@@ -6098,7 +6101,7 @@
     </row>
     <row r="302" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE302" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF302">
         <v>20000</v>
@@ -6106,7 +6109,7 @@
     </row>
     <row r="303" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE303" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF303">
         <v>5700</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="304" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE304" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF304">
         <v>5700</v>
@@ -6122,7 +6125,7 @@
     </row>
     <row r="305" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE305" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF305">
         <v>10600</v>
@@ -6184,7 +6187,7 @@
       </c>
       <c r="E1" s="2"/>
       <c r="AE1" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF1" s="2">
         <v>900</v>
@@ -6204,7 +6207,7 @@
         <f>VLOOKUP(B2,AE1:AF73,2,0)</f>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF2" s="3">
         <v>900</v>
@@ -6231,7 +6234,7 @@
       </c>
       <c r="G3" s="6"/>
       <c r="AE3" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF3" s="6">
         <v>900</v>
@@ -6272,7 +6275,7 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF4" s="7">
         <v>900</v>
@@ -6326,7 +6329,7 @@
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF5">
         <v>900</v>
@@ -6380,7 +6383,7 @@
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
       <c r="AE6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF6">
         <v>900</v>
@@ -6428,7 +6431,7 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF7">
         <v>900</v>
@@ -6476,7 +6479,7 @@
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
       <c r="AE8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF8">
         <v>900</v>
@@ -6524,7 +6527,7 @@
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
       <c r="AE9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF9">
         <v>900</v>
@@ -6572,7 +6575,7 @@
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
       <c r="AE10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF10">
         <v>900</v>
@@ -6620,7 +6623,7 @@
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
       <c r="AE11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF11">
         <v>900</v>
@@ -6631,7 +6634,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C12" s="13">
         <v>65</v>
@@ -6668,7 +6671,7 @@
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
       <c r="AE12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF12">
         <v>900</v>
@@ -6679,7 +6682,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C13" s="13">
         <v>60</v>
@@ -6716,7 +6719,7 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF13">
         <v>900</v>
@@ -6727,7 +6730,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C14" s="13">
         <v>60</v>
@@ -6764,7 +6767,7 @@
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
       <c r="AE14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF14">
         <v>900</v>
@@ -6775,7 +6778,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C15" s="13">
         <v>60</v>
@@ -6812,7 +6815,7 @@
       <c r="AC15" s="14"/>
       <c r="AD15" s="14"/>
       <c r="AE15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF15">
         <v>900</v>
@@ -6823,7 +6826,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C16" s="13">
         <v>60</v>
@@ -6860,7 +6863,7 @@
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
       <c r="AE16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF16">
         <v>900</v>
@@ -6871,7 +6874,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C17" s="13">
         <v>45</v>
@@ -6908,7 +6911,7 @@
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
       <c r="AE17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF17">
         <v>900</v>
@@ -6919,7 +6922,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C18" s="10">
         <v>35</v>
@@ -6956,7 +6959,7 @@
       <c r="AC18" s="12"/>
       <c r="AD18" s="12"/>
       <c r="AE18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF18">
         <v>900</v>
@@ -6967,7 +6970,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C19" s="10">
         <v>30</v>
@@ -7004,7 +7007,7 @@
       <c r="AC19" s="12"/>
       <c r="AD19" s="12"/>
       <c r="AE19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF19">
         <v>900</v>
@@ -7015,7 +7018,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C20" s="10">
         <v>30</v>
@@ -7052,7 +7055,7 @@
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
       <c r="AE20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF20">
         <v>900</v>
@@ -7063,7 +7066,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C21" s="10">
         <v>30</v>
@@ -7100,7 +7103,7 @@
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF21">
         <v>900</v>
@@ -7111,7 +7114,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C22" s="10">
         <v>30</v>
@@ -7148,7 +7151,7 @@
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF22">
         <v>900</v>
@@ -7159,7 +7162,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C23" s="10">
         <v>30</v>
@@ -7196,7 +7199,7 @@
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
       <c r="AE23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF23">
         <v>900</v>
@@ -7207,7 +7210,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C24" s="10">
         <v>25</v>
@@ -7244,7 +7247,7 @@
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
       <c r="AE24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF24">
         <v>900</v>
@@ -7252,7 +7255,7 @@
     </row>
     <row r="25" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF25">
         <v>900</v>
@@ -7260,7 +7263,7 @@
     </row>
     <row r="26" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF26">
         <v>900</v>
@@ -7268,7 +7271,7 @@
     </row>
     <row r="27" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF27">
         <v>900</v>
@@ -7276,7 +7279,7 @@
     </row>
     <row r="28" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF28">
         <v>1350</v>
@@ -7284,7 +7287,7 @@
     </row>
     <row r="29" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF29">
         <v>900</v>
@@ -7292,7 +7295,7 @@
     </row>
     <row r="30" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF30">
         <v>900</v>
@@ -7300,7 +7303,7 @@
     </row>
     <row r="31" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF31">
         <v>900</v>
@@ -7308,7 +7311,7 @@
     </row>
     <row r="32" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE32" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF32">
         <v>900</v>
@@ -7316,7 +7319,7 @@
     </row>
     <row r="33" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE33" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF33">
         <v>900</v>
@@ -7324,7 +7327,7 @@
     </row>
     <row r="34" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF34">
         <v>900</v>
@@ -7332,7 +7335,7 @@
     </row>
     <row r="35" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE35" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF35">
         <v>900</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="36" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF36">
         <v>900</v>
@@ -7348,7 +7351,7 @@
     </row>
     <row r="37" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE37" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF37">
         <v>900</v>
@@ -7356,7 +7359,7 @@
     </row>
     <row r="38" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE38" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF38">
         <v>900</v>
@@ -7364,7 +7367,7 @@
     </row>
     <row r="39" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE39" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF39">
         <v>900</v>
@@ -7372,7 +7375,7 @@
     </row>
     <row r="40" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE40" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF40">
         <v>1350</v>
@@ -7380,7 +7383,7 @@
     </row>
     <row r="41" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE41" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF41">
         <v>900</v>
@@ -7388,7 +7391,7 @@
     </row>
     <row r="42" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF42">
         <v>900</v>
@@ -7396,7 +7399,7 @@
     </row>
     <row r="43" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF43">
         <v>900</v>
@@ -7404,7 +7407,7 @@
     </row>
     <row r="44" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE44" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF44">
         <v>900</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="45" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE45" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF45">
         <v>900</v>
@@ -7420,7 +7423,7 @@
     </row>
     <row r="46" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE46" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF46">
         <v>1350</v>
@@ -7428,7 +7431,7 @@
     </row>
     <row r="47" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE47" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF47">
         <v>900</v>
@@ -7436,7 +7439,7 @@
     </row>
     <row r="48" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE48" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF48">
         <v>900</v>
@@ -7444,7 +7447,7 @@
     </row>
     <row r="49" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE49" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF49">
         <v>900</v>
@@ -7452,7 +7455,7 @@
     </row>
     <row r="50" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE50" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF50">
         <v>900</v>
@@ -7460,7 +7463,7 @@
     </row>
     <row r="51" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE51" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF51">
         <v>2900</v>
@@ -7468,7 +7471,7 @@
     </row>
     <row r="52" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE52" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF52">
         <v>900</v>
@@ -7476,7 +7479,7 @@
     </row>
     <row r="53" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE53" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF53">
         <v>900</v>
@@ -7484,7 +7487,7 @@
     </row>
     <row r="54" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF54">
         <v>900</v>
@@ -7492,7 +7495,7 @@
     </row>
     <row r="55" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE55" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF55">
         <v>900</v>
@@ -7500,7 +7503,7 @@
     </row>
     <row r="56" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE56" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF56">
         <v>900</v>
@@ -7508,7 +7511,7 @@
     </row>
     <row r="57" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE57" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF57">
         <v>900</v>
@@ -7516,7 +7519,7 @@
     </row>
     <row r="58" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE58" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF58">
         <v>1350</v>
@@ -7524,7 +7527,7 @@
     </row>
     <row r="59" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE59" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF59">
         <v>1350</v>
@@ -7532,7 +7535,7 @@
     </row>
     <row r="60" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE60" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF60">
         <v>900</v>
@@ -7540,7 +7543,7 @@
     </row>
     <row r="61" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE61" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF61">
         <v>900</v>
@@ -7548,7 +7551,7 @@
     </row>
     <row r="62" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE62" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF62">
         <v>900</v>
@@ -7556,7 +7559,7 @@
     </row>
     <row r="63" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE63" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF63">
         <v>900</v>
@@ -7564,7 +7567,7 @@
     </row>
     <row r="64" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE64" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF64">
         <v>900</v>
@@ -7572,7 +7575,7 @@
     </row>
     <row r="65" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE65" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF65">
         <v>900</v>
@@ -7580,7 +7583,7 @@
     </row>
     <row r="66" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE66" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF66">
         <v>900</v>
@@ -7588,7 +7591,7 @@
     </row>
     <row r="67" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE67" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF67">
         <v>900</v>
@@ -7596,7 +7599,7 @@
     </row>
     <row r="68" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE68" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF68">
         <v>900</v>
@@ -7604,7 +7607,7 @@
     </row>
     <row r="69" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE69" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF69">
         <v>900</v>
@@ -7612,7 +7615,7 @@
     </row>
     <row r="70" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE70" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF70">
         <v>900</v>
@@ -7620,7 +7623,7 @@
     </row>
     <row r="71" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE71" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF71">
         <v>900</v>
@@ -7628,7 +7631,7 @@
     </row>
     <row r="72" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE72" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF72">
         <v>900</v>
@@ -7636,7 +7639,7 @@
     </row>
     <row r="73" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE73" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF73">
         <v>900</v>
